--- a/excel/Rechentool_Wasserchemie.xlsx
+++ b/excel/Rechentool_Wasserchemie.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschlenstedt\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="824"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="12" r:id="rId1"/>
@@ -20,19 +15,20 @@
     <sheet name="Quelle pH 2" sheetId="4" r:id="rId6"/>
     <sheet name="Quelle pH 3" sheetId="5" r:id="rId7"/>
     <sheet name="Quelle pH 4" sheetId="13" r:id="rId8"/>
-    <sheet name="Quelle CYA" sheetId="2" r:id="rId9"/>
-    <sheet name="Quelle pH Senker 1" sheetId="9" r:id="rId10"/>
-    <sheet name="Quelle pH Senker 2" sheetId="11" r:id="rId11"/>
-    <sheet name="Quelle Chlor 1" sheetId="16" r:id="rId12"/>
-    <sheet name="Quelle Chlor 2" sheetId="19" r:id="rId13"/>
-    <sheet name="Quelle Redox 1" sheetId="15" r:id="rId14"/>
+    <sheet name="Quelle pH 5" sheetId="20" r:id="rId9"/>
+    <sheet name="Quelle CYA" sheetId="2" r:id="rId10"/>
+    <sheet name="Quelle pH Senker 1" sheetId="9" r:id="rId11"/>
+    <sheet name="Quelle pH Senker 2" sheetId="11" r:id="rId12"/>
+    <sheet name="Quelle Chlor 1" sheetId="16" r:id="rId13"/>
+    <sheet name="Quelle Chlor 2" sheetId="19" r:id="rId14"/>
+    <sheet name="Quelle Redox 1" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="123">
   <si>
     <t>pH Wert</t>
   </si>
@@ -743,17 +739,26 @@
   <si>
     <t>Ver</t>
   </si>
+  <si>
+    <t>https://www.loercher.de/ana/bad/Presse/sp/BDS-2017-10.pdf</t>
+  </si>
+  <si>
+    <t>G.C. White: Handbook of chlorination and alternative desinfactants, John Wiley &amp; sons, Inc., New York, 1999, p. 218</t>
+  </si>
+  <si>
+    <t>Quelle pH_5 inkl. Berechnung hinzugefügt; 2. Qellennachweis für die Formel in Quelle pH_2 hinzugefügt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,13 +801,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -964,7 +962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1192,6 +1190,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1200,7 +1207,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1246,15 +1253,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1322,7 +1329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1334,7 +1341,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,58 +1376,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,44 +1461,45 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1499,35 +1521,23 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19137729658792652"/>
+          <c:x val="0.19137729658792657"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.76399081364829391"/>
+          <c:w val="0.76399081364829424"/>
           <c:h val="0.76486840186643335"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1539,12 +1549,11 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.119500656167979"/>
+                  <c:x val="-0.11950065616797902"/>
                   <c:y val="1.8652303878681831E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1643,30 +1652,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4711-44F4-B6D8-ADB69940E42F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="132799488"/>
-        <c:axId val="132797952"/>
+        <c:dLbls/>
+        <c:axId val="150409600"/>
+        <c:axId val="150411520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="132799488"/>
+        <c:axId val="150409600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1689,26 +1689,22 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.51635170603674541"/>
-              <c:y val="0.89719889180519097"/>
+              <c:y val="0.89719889180519108"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132797952"/>
+        <c:crossAx val="150411520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132797952"/>
+        <c:axId val="150411520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1732,60 +1728,43 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132799488"/>
+        <c:crossAx val="150409600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19137729658792663"/>
+          <c:x val="0.19137729658792668"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.76399081364829458"/>
+          <c:w val="0.76399081364829502"/>
           <c:h val="0.76486840186643335"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1797,12 +1776,11 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11950065616797903"/>
+                  <c:x val="-0.11950065616797904"/>
                   <c:y val="1.8652303878681831E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1901,30 +1879,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1B5C-435B-B95D-5D4907B5DECD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="165250944"/>
-        <c:axId val="165359616"/>
+        <c:dLbls/>
+        <c:axId val="151069056"/>
+        <c:axId val="151070976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165250944"/>
+        <c:axId val="151069056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1947,26 +1916,22 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.51635170603674541"/>
-              <c:y val="0.89719889180519119"/>
+              <c:y val="0.8971988918051913"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165359616"/>
+        <c:crossAx val="151070976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165359616"/>
+        <c:axId val="151070976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1991,59 +1956,43 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165250944"/>
+        <c:crossAx val="151069056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19137729658792663"/>
+          <c:x val="0.19137729658792668"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.76399081364829458"/>
+          <c:w val="0.76399081364829502"/>
           <c:h val="0.76486840186643335"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2055,12 +2004,11 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11950065616797903"/>
+                  <c:x val="-0.11950065616797904"/>
                   <c:y val="1.8652303878681831E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -2171,30 +2119,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0816-45A1-AC85-FA9964234BCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="165250944"/>
-        <c:axId val="165359616"/>
+        <c:dLbls/>
+        <c:axId val="151145856"/>
+        <c:axId val="151184896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165250944"/>
+        <c:axId val="151145856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2217,26 +2156,22 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.51635170603674541"/>
-              <c:y val="0.89719889180519119"/>
+              <c:y val="0.8971988918051913"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165359616"/>
+        <c:crossAx val="151184896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165359616"/>
+        <c:axId val="151184896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2261,59 +2196,282 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165250944"/>
+        <c:crossAx val="151145856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19137729658792663"/>
+          <c:x val="0.19137729658792677"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.76399081364829458"/>
+          <c:w val="0.76399081364829569"/>
           <c:h val="0.76486840186643335"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1994798775153106"/>
+                  <c:y val="0.18596092155147273"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000000000000000000000000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Quelle pH 5'!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Quelle pH 5'!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0816-45A1-AC85-FA9964234BCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:axId val="49345664"/>
+        <c:axId val="49347584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49345664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>pH Wert</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51635170603674541"/>
+              <c:y val="0.89719889180519152"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49347584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49347584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anteil HOCl an freiem</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> wirksamen Cl2 [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49345664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19137729658792668"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.76399081364829502"/>
+          <c:h val="0.76486840186643335"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2324,18 +2482,15 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.7292213473315833E-3"/>
+                  <c:x val="6.7292213473315841E-3"/>
                   <c:y val="-0.40721784776902886"/>
                 </c:manualLayout>
               </c:layout>
@@ -2436,31 +2591,22 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-169C-4E97-9323-3BBDF1533E7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="154212992"/>
-        <c:axId val="164997376"/>
+        <c:dLbls/>
+        <c:axId val="150953344"/>
+        <c:axId val="150967808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154212992"/>
+        <c:axId val="150953344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2490,23 +2636,19 @@
               <c:y val="0.91108778069407992"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164997376"/>
+        <c:crossAx val="150967808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164997376"/>
+        <c:axId val="150967808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2531,59 +2673,43 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154212992"/>
+        <c:crossAx val="150953344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19137729658792663"/>
+          <c:x val="0.19137729658792668"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.76399081364829458"/>
+          <c:w val="0.76399081364829502"/>
           <c:h val="0.76486840186643335"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2595,19 +2721,16 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.20555555555555552"/>
-                  <c:y val="0.44450596307040569"/>
+                  <c:y val="0.4445059630704058"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000000000000000000000000000000" sourceLinked="0"/>
@@ -3001,31 +3124,22 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B06-4ACC-982F-FA0C7BCB6DCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="154212992"/>
-        <c:axId val="164997376"/>
+        <c:dLbls/>
+        <c:axId val="151252352"/>
+        <c:axId val="151254528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154212992"/>
+        <c:axId val="151252352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3055,22 +3169,18 @@
               <c:y val="0.91108778069407992"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164997376"/>
+        <c:crossAx val="151254528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164997376"/>
+        <c:axId val="151254528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3089,60 +3199,43 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154212992"/>
+        <c:crossAx val="151252352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19137729658792663"/>
+          <c:x val="0.19137729658792668"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.76399081364829458"/>
+          <c:w val="0.76399081364829502"/>
           <c:h val="0.76486840186643335"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3154,19 +3247,16 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.20555555555555552"/>
-                  <c:y val="0.44450596307040569"/>
+                  <c:y val="0.4445059630704058"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000000000000000000000000000000" sourceLinked="0"/>
@@ -3199,31 +3289,22 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-61A9-4F41-ACF6-D58C93B2A71B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="154212992"/>
-        <c:axId val="164997376"/>
+        <c:dLbls/>
+        <c:axId val="151057536"/>
+        <c:axId val="151059456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154212992"/>
+        <c:axId val="151057536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3253,22 +3334,18 @@
               <c:y val="0.91108778069407992"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164997376"/>
+        <c:crossAx val="151059456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164997376"/>
+        <c:axId val="151059456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3287,25 +3364,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154212992"/>
+        <c:crossAx val="151057536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3393,6 +3465,81 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="190500"/>
+          <a:ext cx="4362450" cy="4475422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3426,6 +3573,53 @@
         <a:xfrm>
           <a:off x="57150" y="247650"/>
           <a:ext cx="4486275" cy="751937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="114300" y="1028700"/>
+          <a:ext cx="3409950" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3604,6 +3798,134 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="209550"/>
+          <a:ext cx="3286125" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>87061</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88649</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1846316" y="2234712"/>
+          <a:ext cx="2579077" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3684,7 +4006,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3759,7 +4081,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3802,7 +4124,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3845,85 +4167,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>93922</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="190500"/>
-          <a:ext cx="4362450" cy="4475422"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3961,9 +4208,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3995,10 +4242,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4030,10 +4276,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4206,228 +4451,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="49"/>
+    <col min="3" max="3" width="5.5703125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="57" style="49" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="49"/>
+    <col min="8" max="8" width="5.28515625" style="49" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:14">
+      <c r="B2" s="117" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="99" t="s">
+    <row r="3" spans="2:14" ht="7.5" customHeight="1"/>
+    <row r="4" spans="2:14">
+      <c r="B4" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="101" t="s">
+    <row r="5" spans="2:14" ht="7.5" customHeight="1"/>
+    <row r="6" spans="2:14">
+      <c r="B6" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="100" t="s">
+    <row r="7" spans="2:14" ht="7.5" customHeight="1"/>
+    <row r="8" spans="2:14">
+      <c r="B8" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:14">
+      <c r="B11" s="117" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="103" t="s">
+    <row r="12" spans="2:14" ht="7.5" customHeight="1"/>
+    <row r="13" spans="2:14" ht="15" customHeight="1">
+      <c r="B13" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
-      <c r="I13" s="118" t="s">
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
+      <c r="I13" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="103" t="s">
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="126"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="114"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="126"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="126"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="108"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="103" t="s">
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="126"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="112"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="114"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="126"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="126"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="111"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="126"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="114"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="126"/>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="119" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="121" t="s">
+    <row r="25" spans="2:14">
+      <c r="B25" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="122" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="120">
+    <row r="26" spans="2:14">
+      <c r="B26" s="123">
         <v>44386</v>
       </c>
-      <c r="C26" s="102">
+      <c r="C26" s="124">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="49" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="102"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="102"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="102"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="102"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="102"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="102"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="102"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="102"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="102"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="102"/>
+    <row r="27" spans="2:14" ht="30">
+      <c r="B27" s="123">
+        <v>44387</v>
+      </c>
+      <c r="C27" s="124">
+        <v>2</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="C28" s="124"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="C29" s="124"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="C30" s="124"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="C31" s="124"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="C32" s="124"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="124"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="124"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="124"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:G14"/>
     <mergeCell ref="B16:G17"/>
     <mergeCell ref="B19:G20"/>
-    <mergeCell ref="I13:N20"/>
+    <mergeCell ref="I13:L20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13:G14" location="'Rechner aktives Chlor'!A1" display="Berechnung aktiv wirksames Chlor "/>
@@ -4439,14 +4694,163 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="H2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="H4" s="10">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="10">
+        <v>50</v>
+      </c>
+      <c r="I5" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="10">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="10">
+        <v>90</v>
+      </c>
+      <c r="I7" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="10">
+        <v>100</v>
+      </c>
+      <c r="I8" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="10">
+        <v>130</v>
+      </c>
+      <c r="I9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="H10" s="10">
+        <v>140</v>
+      </c>
+      <c r="I10" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="H11" s="10">
+        <v>160</v>
+      </c>
+      <c r="I11" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="10">
+        <v>180</v>
+      </c>
+      <c r="I12" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="10">
+        <v>200</v>
+      </c>
+      <c r="I13" s="10">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
@@ -4706,7 +5110,7 @@
     <col min="16136" max="16136" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4714,65 +5118,65 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75">
       <c r="C4" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="C13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:9" ht="18">
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -4783,7 +5187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:9" ht="18.75">
       <c r="E18" t="s">
         <v>31</v>
       </c>
@@ -4791,37 +5195,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9">
       <c r="C20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9">
       <c r="C21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9">
       <c r="C22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9">
       <c r="C23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9">
       <c r="C24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9">
       <c r="C25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9">
       <c r="C27" s="41" t="s">
         <v>39</v>
       </c>
@@ -4837,7 +5241,7 @@
       </c>
       <c r="I27" s="42"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9">
       <c r="C28" s="41" t="s">
         <v>42</v>
       </c>
@@ -4849,7 +5253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9">
       <c r="C29" s="41" t="s">
         <v>44</v>
       </c>
@@ -4861,7 +5265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9">
       <c r="C30" s="41" t="s">
         <v>46</v>
       </c>
@@ -4873,7 +5277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9">
       <c r="C31" s="41" t="s">
         <v>47</v>
       </c>
@@ -4885,7 +5289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="43" t="s">
         <v>9</v>
       </c>
@@ -4904,7 +5308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="18">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -4916,7 +5320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="18.75">
       <c r="A38" s="43" t="s">
         <v>9</v>
       </c>
@@ -4935,7 +5339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="18">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -4947,7 +5351,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="18.75">
       <c r="C42" t="s">
         <v>49</v>
       </c>
@@ -4959,7 +5363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="18">
       <c r="C44" t="s">
         <v>50</v>
       </c>
@@ -4979,7 +5383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="C45" s="41" t="s">
         <v>53</v>
       </c>
@@ -4999,12 +5403,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="C47" s="41"/>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
     </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="18">
       <c r="H48" s="44" t="s">
         <v>55</v>
       </c>
@@ -5016,7 +5420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:8" ht="18">
       <c r="C49" s="44" t="s">
         <v>57</v>
       </c>
@@ -5029,10 +5433,10 @@
       </c>
       <c r="H49" s="46"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8">
       <c r="H50" s="46"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8">
       <c r="C51" s="47"/>
       <c r="D51" s="48"/>
       <c r="E51" s="47"/>
@@ -5046,17 +5450,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -5068,7 +5472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.25" thickBot="1">
       <c r="G2" s="91" t="s">
         <v>82</v>
       </c>
@@ -5076,7 +5480,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="G3" s="87">
         <v>1</v>
       </c>
@@ -5084,7 +5488,7 @@
         <v>1.0038</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="G4" s="87">
         <v>2</v>
       </c>
@@ -5092,7 +5496,7 @@
         <v>1.0104</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="G5" s="87">
         <v>3</v>
       </c>
@@ -5100,7 +5504,7 @@
         <v>1.0168999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="G6" s="87">
         <v>4</v>
       </c>
@@ -5108,7 +5512,7 @@
         <v>1.0234000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="G7" s="87">
         <v>5</v>
       </c>
@@ -5116,7 +5520,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="G8" s="87">
         <v>6</v>
       </c>
@@ -5124,7 +5528,7 @@
         <v>1.0367</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="G9" s="87">
         <v>7</v>
       </c>
@@ -5132,7 +5536,7 @@
         <v>1.0434000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="G10" s="87">
         <v>8</v>
       </c>
@@ -5140,7 +5544,7 @@
         <v>1.0502</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="G11" s="87">
         <v>9</v>
       </c>
@@ -5148,7 +5552,7 @@
         <v>1.0570999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="G12" s="87">
         <v>10</v>
       </c>
@@ -5156,7 +5560,7 @@
         <v>1.0640000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="G13" s="87">
         <v>12</v>
       </c>
@@ -5164,7 +5568,7 @@
         <v>1.0780000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="G14" s="87">
         <v>14</v>
       </c>
@@ -5172,7 +5576,7 @@
         <v>1.0922000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="G15" s="87">
         <v>16</v>
       </c>
@@ -5180,7 +5584,7 @@
         <v>1.1067</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="87">
         <v>18</v>
       </c>
@@ -5188,7 +5592,7 @@
         <v>1.1214999999999999</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8">
       <c r="G17" s="87">
         <v>20</v>
       </c>
@@ -5196,7 +5600,7 @@
         <v>1.1365000000000001</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8">
       <c r="G18" s="87">
         <v>22</v>
       </c>
@@ -5204,7 +5608,7 @@
         <v>1.1516999999999999</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:8">
       <c r="G19" s="87">
         <v>24</v>
       </c>
@@ -5212,7 +5616,7 @@
         <v>1.1672</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:8">
       <c r="G20" s="87">
         <v>26</v>
       </c>
@@ -5220,7 +5624,7 @@
         <v>1.1829000000000001</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:8">
       <c r="G21" s="87">
         <v>28</v>
       </c>
@@ -5228,7 +5632,7 @@
         <v>1.1989000000000001</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:8">
       <c r="G22" s="87">
         <v>30</v>
       </c>
@@ -5236,7 +5640,7 @@
         <v>1.2150000000000001</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:8">
       <c r="G23" s="87">
         <v>32</v>
       </c>
@@ -5244,7 +5648,7 @@
         <v>1.2314000000000001</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:8">
       <c r="G24" s="87">
         <v>34</v>
       </c>
@@ -5252,7 +5656,7 @@
         <v>1.2479</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:8">
       <c r="G25" s="87">
         <v>36</v>
       </c>
@@ -5260,7 +5664,7 @@
         <v>1.2646999999999999</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8">
       <c r="G26" s="87">
         <v>38</v>
       </c>
@@ -5268,7 +5672,7 @@
         <v>1.2818000000000001</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:8">
       <c r="G27" s="87">
         <v>40</v>
       </c>
@@ -5276,7 +5680,7 @@
         <v>1.2990999999999999</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:8">
       <c r="G28" s="87">
         <v>42</v>
       </c>
@@ -5284,7 +5688,7 @@
         <v>1.3167</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:8">
       <c r="G29" s="87">
         <v>44</v>
       </c>
@@ -5292,7 +5696,7 @@
         <v>1.3346</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:8">
       <c r="G30" s="87">
         <v>46</v>
       </c>
@@ -5300,7 +5704,7 @@
         <v>1.353</v>
       </c>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:8">
       <c r="G31" s="87">
         <v>48</v>
       </c>
@@ -5308,7 +5712,7 @@
         <v>1.3718999999999999</v>
       </c>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:8">
       <c r="G32" s="87">
         <v>50</v>
       </c>
@@ -5316,7 +5720,7 @@
         <v>1.3911</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="G33" s="87">
         <v>52</v>
       </c>
@@ -5324,7 +5728,7 @@
         <v>1.4109</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="G34" s="87">
         <v>54</v>
       </c>
@@ -5332,7 +5736,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="G35" s="87">
         <v>56</v>
       </c>
@@ -5340,7 +5744,7 @@
         <v>1.4516</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="G36" s="87">
         <v>58</v>
       </c>
@@ -5348,7 +5752,7 @@
         <v>1.4725999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="G37" s="87">
         <v>60</v>
       </c>
@@ -5356,7 +5760,7 @@
         <v>1.494</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="G38" s="87">
         <v>62</v>
       </c>
@@ -5364,7 +5768,7 @@
         <v>1.5157</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="G39" s="87">
         <v>64</v>
       </c>
@@ -5372,7 +5776,7 @@
         <v>1.5378000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="G40" s="87">
         <v>66</v>
       </c>
@@ -5380,7 +5784,7 @@
         <v>1.5602</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="G41" s="87">
         <v>68</v>
       </c>
@@ -5388,7 +5792,7 @@
         <v>1.5829</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="G42" s="87">
         <v>70</v>
       </c>
@@ -5396,7 +5800,7 @@
         <v>1.6059000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="G43" s="87">
         <v>72</v>
       </c>
@@ -5404,7 +5808,7 @@
         <v>1.6292</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="G44" s="87">
         <v>74</v>
       </c>
@@ -5412,7 +5816,7 @@
         <v>1.6526000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="G45" s="87">
         <v>76</v>
       </c>
@@ -5420,7 +5824,7 @@
         <v>1.6760999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -5434,7 +5838,7 @@
         <v>1.6994</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -5445,7 +5849,7 @@
         <v>1.7221</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="G48" s="87">
         <v>82</v>
       </c>
@@ -5453,7 +5857,7 @@
         <v>1.7437</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:8">
       <c r="G49" s="87">
         <v>84</v>
       </c>
@@ -5461,7 +5865,7 @@
         <v>1.7639</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:8">
       <c r="G50" s="87">
         <v>86</v>
       </c>
@@ -5469,7 +5873,7 @@
         <v>1.7818000000000001</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:8">
       <c r="G51" s="87">
         <v>88</v>
       </c>
@@ -5477,7 +5881,7 @@
         <v>1.7968</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:8">
       <c r="G52" s="87">
         <v>90</v>
       </c>
@@ -5485,7 +5889,7 @@
         <v>1.8090999999999999</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:8">
       <c r="G53" s="87">
         <v>91</v>
       </c>
@@ -5493,7 +5897,7 @@
         <v>1.8142</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:8">
       <c r="G54" s="87">
         <v>92</v>
       </c>
@@ -5501,7 +5905,7 @@
         <v>1.8188</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:8">
       <c r="G55" s="87">
         <v>93</v>
       </c>
@@ -5509,7 +5913,7 @@
         <v>1.8227</v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:8">
       <c r="G56" s="87">
         <v>94</v>
       </c>
@@ -5517,7 +5921,7 @@
         <v>1.8260000000000001</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:8">
       <c r="G57" s="87">
         <v>95</v>
       </c>
@@ -5525,7 +5929,7 @@
         <v>1.8286</v>
       </c>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:8">
       <c r="G58" s="87">
         <v>96</v>
       </c>
@@ -5533,7 +5937,7 @@
         <v>1.8305</v>
       </c>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:8">
       <c r="G59" s="87">
         <v>97</v>
       </c>
@@ -5541,7 +5945,7 @@
         <v>1.8313999999999999</v>
       </c>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:8">
       <c r="G60" s="87">
         <v>98</v>
       </c>
@@ -5549,7 +5953,7 @@
         <v>1.831</v>
       </c>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:8">
       <c r="G61" s="87">
         <v>99</v>
       </c>
@@ -5557,7 +5961,7 @@
         <v>1.8291999999999999</v>
       </c>
     </row>
-    <row r="62" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:8" ht="15.75" thickBot="1">
       <c r="G62" s="89">
         <v>100</v>
       </c>
@@ -5574,13 +5978,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
@@ -5840,7 +6244,7 @@
     <col min="16136" max="16136" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -5848,12 +6252,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -5863,13 +6267,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
@@ -6129,7 +6533,7 @@
     <col min="16136" max="16136" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -6137,12 +6541,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
@@ -6152,17 +6556,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -6174,7 +6578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -6182,7 +6586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -6194,14 +6598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" customWidth="1"/>
@@ -6210,15 +6614,15 @@
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:13" ht="8.25" customHeight="1">
       <c r="B2" s="31"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" s="18"/>
       <c r="C3" s="84" t="s">
         <v>13</v>
@@ -6226,21 +6630,21 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="105"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="111"/>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="18"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="108"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I4" s="112"/>
+      <c r="J4" s="114"/>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="18"/>
       <c r="C5" s="26" t="s">
         <v>60</v>
@@ -6253,7 +6657,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" s="18"/>
       <c r="C6" s="16" t="s">
         <v>61</v>
@@ -6266,7 +6670,7 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" s="18"/>
       <c r="C7" s="16" t="s">
         <v>62</v>
@@ -6279,22 +6683,22 @@
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
       <c r="B8" s="22"/>
       <c r="C8" s="20"/>
       <c r="D8" s="32"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:13" ht="8.25" customHeight="1">
       <c r="B10" s="31"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" s="2" customFormat="1">
       <c r="B11" s="82"/>
       <c r="C11" s="84" t="s">
         <v>15</v>
@@ -6307,14 +6711,14 @@
       </c>
       <c r="F11" s="83"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" s="18"/>
       <c r="C12" s="27"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
         <v>10</v>
@@ -6335,7 +6739,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" s="18"/>
       <c r="C14" s="16" t="s">
         <v>12</v>
@@ -6349,14 +6753,14 @@
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="19"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" s="18"/>
       <c r="C16" s="30" t="s">
         <v>14</v>
@@ -6370,22 +6774,22 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
       <c r="B17" s="22"/>
       <c r="C17" s="28"/>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="19" spans="2:13" ht="8.25" customHeight="1">
       <c r="B19" s="31"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" s="2" customFormat="1">
       <c r="B20" s="82"/>
       <c r="C20" s="84" t="s">
         <v>15</v>
@@ -6398,14 +6802,14 @@
       </c>
       <c r="F20" s="83"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="18"/>
       <c r="C21" s="27"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="18"/>
       <c r="C22" s="16" t="s">
         <v>10</v>
@@ -6426,7 +6830,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" s="18"/>
       <c r="C23" s="16" t="s">
         <v>12</v>
@@ -6440,14 +6844,14 @@
       </c>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="19"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" s="18"/>
       <c r="C25" s="30" t="s">
         <v>14</v>
@@ -6461,22 +6865,22 @@
       </c>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
       <c r="B26" s="22"/>
       <c r="C26" s="28"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="28" spans="2:13" ht="8.25" customHeight="1">
       <c r="B28" s="31"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" s="18"/>
       <c r="C29" s="84" t="s">
         <v>15</v>
@@ -6489,14 +6893,14 @@
       </c>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="B30" s="18"/>
       <c r="C30" s="27"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="B31" s="18"/>
       <c r="C31" s="16" t="s">
         <v>10</v>
@@ -6517,7 +6921,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="B32" s="18"/>
       <c r="C32" s="16" t="s">
         <v>12</v>
@@ -6531,14 +6935,14 @@
       </c>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13">
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="19"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13">
       <c r="B34" s="18"/>
       <c r="C34" s="30" t="s">
         <v>14</v>
@@ -6552,28 +6956,25 @@
       </c>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="28"/>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="37" spans="2:13" ht="8.25" customHeight="1">
       <c r="B37" s="31"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13">
       <c r="B38" s="18"/>
       <c r="C38" s="84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>16</v>
@@ -6583,54 +6984,148 @@
       </c>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13">
       <c r="B39" s="18"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13">
       <c r="B40" s="18"/>
       <c r="C40" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="97">
+        <f>-9.86801751423627E-11*D7^5+11.6550116601304*D7^4-324.009324101167*D7^3+3353.61305437523*D7^2-15353.4848514933*D7+26374.6993052818</f>
+        <v>79.748251747747418</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="18"/>
+      <c r="C41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="98">
+      <c r="D41" s="98">
         <f>-3.55929641346394E-09*D6^5+0.0000020015710579953*D6^4-0.000429972723418801*D6^3+0.0460773383745402*D6^2-2.80529044381005*D6+99.6338409554219</f>
         <v>51.159750167555572</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="19"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13">
       <c r="B42" s="18"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="18"/>
+      <c r="C43" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D43" s="35">
+        <f>D5*D40/100*D41/100</f>
+        <v>0.48142827501426205</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
+      <c r="B44" s="22"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="2:13" ht="8.25" customHeight="1">
+      <c r="B46" s="31"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="18"/>
+      <c r="C47" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="18"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="18"/>
+      <c r="C49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="98">
+        <f>-3.55929641346394E-09*D6^5+0.0000020015710579953*D6^4-0.000429972723418801*D6^3+0.0460773383745402*D6^2-2.80529044381005*D6+99.6338409554219</f>
+        <v>51.159750167555572</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="18"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="18"/>
+      <c r="C51" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="35">
         <f>D5/(1+((0.0567*25)+1.476)*10^-8/10^(-1*D7))*D23/100</f>
         <v>0.49086515671887443</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E51" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="21"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="2:6" ht="8.25" customHeight="1" thickBot="1">
+      <c r="B52" s="22"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6639,13 +7134,15 @@
   <hyperlinks>
     <hyperlink ref="D20" location="'Quelle pH_1'!A1" display="Quelle"/>
     <hyperlink ref="E20" location="'Quelle CYA'!A1" display="Quelle"/>
-    <hyperlink ref="D38" location="'Quelle pH_2'!A1" display="Quelle"/>
-    <hyperlink ref="E38" location="'Quelle CYA'!A1" display="Quelle"/>
+    <hyperlink ref="D47" location="'Quelle pH_2'!A1" display="Quelle"/>
+    <hyperlink ref="E47" location="'Quelle CYA'!A1" display="Quelle"/>
     <hyperlink ref="D29" location="'Quelle pH_3'!A1" display="Quelle"/>
     <hyperlink ref="E29" location="'Quelle CYA'!A1" display="Quelle"/>
     <hyperlink ref="I3:J4" location="Start!A1" display="Zurück"/>
     <hyperlink ref="D11" location="'Quelle pH 4'!A1" display="Quelle"/>
     <hyperlink ref="E11" location="'Quelle CYA'!A1" display="Quelle"/>
+    <hyperlink ref="D38" location="'Quelle pH 5'!A1" display="Quelle"/>
+    <hyperlink ref="E38" location="'Quelle CYA'!A1" display="Quelle"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6653,14 +7150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="49" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" style="49" customWidth="1"/>
@@ -6671,15 +7168,15 @@
     <col min="7" max="16384" width="11.42578125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:10" ht="8.25" customHeight="1">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="52"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" s="53"/>
       <c r="C3" s="85" t="s">
         <v>13</v>
@@ -6687,21 +7184,21 @@
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="56"/>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="105"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="111"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="53"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="F4" s="56"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="108"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="112"/>
+      <c r="J4" s="114"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="53"/>
       <c r="C5" s="57" t="s">
         <v>59</v>
@@ -6714,7 +7211,7 @@
       </c>
       <c r="F5" s="56"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="53"/>
       <c r="C6" s="55" t="s">
         <v>62</v>
@@ -6727,7 +7224,7 @@
       </c>
       <c r="F6" s="56"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="53"/>
       <c r="C7" s="55" t="s">
         <v>63</v>
@@ -6740,7 +7237,7 @@
       </c>
       <c r="F7" s="56"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="53"/>
       <c r="C8" s="60" t="s">
         <v>65</v>
@@ -6753,22 +7250,22 @@
       </c>
       <c r="F8" s="56"/>
     </row>
-    <row r="9" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="8.25" customHeight="1" thickBot="1">
       <c r="B9" s="61"/>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
       <c r="E9" s="62"/>
       <c r="F9" s="64"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:10" ht="8.25" customHeight="1">
       <c r="B11" s="50"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
       <c r="F11" s="52"/>
     </row>
-    <row r="12" spans="2:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" s="65" customFormat="1">
       <c r="B12" s="80"/>
       <c r="C12" s="85" t="s">
         <v>66</v>
@@ -6779,14 +7276,14 @@
       <c r="E12" s="77"/>
       <c r="F12" s="81"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="53"/>
       <c r="C13" s="54"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="56"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="53"/>
       <c r="C14" s="66" t="s">
         <v>67</v>
@@ -6797,14 +7294,14 @@
       <c r="E14" s="55"/>
       <c r="F14" s="56"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" s="53"/>
       <c r="C15" s="54"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="56"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" s="53"/>
       <c r="C16" s="54" t="str">
         <f>"pH "&amp;D6&amp;":"</f>
@@ -6814,7 +7311,7 @@
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
     </row>
-    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="18">
       <c r="B17" s="53"/>
       <c r="C17" s="66" t="s">
         <v>32</v>
@@ -6828,7 +7325,7 @@
       </c>
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="18">
       <c r="B18" s="53"/>
       <c r="C18" s="66" t="s">
         <v>69</v>
@@ -6842,7 +7339,7 @@
       </c>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" s="53"/>
       <c r="C19" s="54" t="str">
         <f>"pH "&amp;D8&amp;":"</f>
@@ -6852,7 +7349,7 @@
       <c r="E19" s="55"/>
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="18">
       <c r="B20" s="53"/>
       <c r="C20" s="66" t="s">
         <v>32</v>
@@ -6866,7 +7363,7 @@
       </c>
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="18">
       <c r="B21" s="53"/>
       <c r="C21" s="66" t="s">
         <v>69</v>
@@ -6887,7 +7384,7 @@
       <c r="L21" s="68"/>
       <c r="M21" s="68"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="53"/>
       <c r="C22" s="66"/>
       <c r="D22" s="67"/>
@@ -6901,7 +7398,7 @@
       <c r="L22" s="68"/>
       <c r="M22" s="68"/>
     </row>
-    <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="18">
       <c r="B23" s="53"/>
       <c r="C23" s="66" t="s">
         <v>49</v>
@@ -6915,25 +7412,25 @@
       </c>
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
       <c r="B24" s="61"/>
       <c r="C24" s="70"/>
       <c r="D24" s="71"/>
       <c r="E24" s="72"/>
       <c r="F24" s="64"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="15.75" thickBot="1">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
     </row>
-    <row r="26" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="8.25" customHeight="1">
       <c r="B26" s="50"/>
       <c r="C26" s="75"/>
       <c r="D26" s="76"/>
       <c r="E26" s="51"/>
       <c r="F26" s="52"/>
     </row>
-    <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="18">
       <c r="B27" s="53"/>
       <c r="C27" s="85" t="s">
         <v>103</v>
@@ -6944,14 +7441,14 @@
       <c r="E27" s="77"/>
       <c r="F27" s="56"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" s="53"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="56"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" s="53"/>
       <c r="C29" s="55" t="s">
         <v>53</v>
@@ -6964,7 +7461,7 @@
       </c>
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="B30" s="53"/>
       <c r="C30" s="55" t="s">
         <v>71</v>
@@ -6977,14 +7474,14 @@
       </c>
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="B31" s="53"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="69"/>
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="B32" s="53"/>
       <c r="C32" s="78" t="s">
         <v>73</v>
@@ -6998,22 +7495,22 @@
       </c>
       <c r="F32" s="56"/>
     </row>
-    <row r="33" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="8.25" customHeight="1" thickBot="1">
       <c r="B33" s="61"/>
       <c r="C33" s="70"/>
       <c r="D33" s="71"/>
       <c r="E33" s="72"/>
       <c r="F33" s="64"/>
     </row>
-    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="35" spans="2:6" ht="8.25" customHeight="1">
       <c r="B35" s="50"/>
       <c r="C35" s="75"/>
       <c r="D35" s="76"/>
       <c r="E35" s="51"/>
       <c r="F35" s="52"/>
     </row>
-    <row r="36" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="18">
       <c r="B36" s="53"/>
       <c r="C36" s="85" t="s">
         <v>104</v>
@@ -7026,14 +7523,14 @@
       </c>
       <c r="F36" s="56"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="53"/>
       <c r="C37" s="55"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="56"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="53"/>
       <c r="C38" s="55" t="s">
         <v>53</v>
@@ -7046,7 +7543,7 @@
       </c>
       <c r="F38" s="56"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="53"/>
       <c r="C39" s="55" t="s">
         <v>71</v>
@@ -7059,7 +7556,7 @@
       </c>
       <c r="F39" s="56"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="53"/>
       <c r="C40" s="55" t="s">
         <v>83</v>
@@ -7073,14 +7570,14 @@
       </c>
       <c r="F40" s="56"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" s="53"/>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
       <c r="E41" s="69"/>
       <c r="F41" s="56"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" s="53"/>
       <c r="C42" s="78" t="s">
         <v>73</v>
@@ -7094,7 +7591,7 @@
       </c>
       <c r="F42" s="56"/>
     </row>
-    <row r="43" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" ht="8.25" customHeight="1" thickBot="1">
       <c r="B43" s="61"/>
       <c r="C43" s="70"/>
       <c r="D43" s="71"/>
@@ -7118,14 +7615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" customWidth="1"/>
@@ -7134,15 +7631,15 @@
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:10" ht="8.25" customHeight="1">
       <c r="B2" s="31"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" s="18"/>
       <c r="C3" s="84" t="s">
         <v>13</v>
@@ -7150,21 +7647,21 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="105"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="111"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="18"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="108"/>
-    </row>
-    <row r="5" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="112"/>
+      <c r="J4" s="114"/>
+    </row>
+    <row r="5" spans="2:10" s="49" customFormat="1">
       <c r="B5" s="53"/>
       <c r="C5" s="55" t="s">
         <v>63</v>
@@ -7177,14 +7674,14 @@
       </c>
       <c r="F5" s="56"/>
     </row>
-    <row r="6" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" s="49" customFormat="1">
       <c r="B6" s="53"/>
       <c r="C6" s="55"/>
-      <c r="D6" s="113"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="18"/>
       <c r="C7" s="26" t="s">
         <v>60</v>
@@ -7197,7 +7694,7 @@
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="18"/>
       <c r="C8" s="30" t="s">
         <v>96</v>
@@ -7210,21 +7707,21 @@
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="18"/>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="110"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="18"/>
       <c r="C10" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="111">
+      <c r="D10" s="103">
         <f>'Rechner aktives Chlor'!D16</f>
         <v>0.48347353269702309</v>
       </c>
@@ -7233,7 +7730,7 @@
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="18"/>
       <c r="C11" s="30" t="s">
         <v>96</v>
@@ -7246,22 +7743,22 @@
       </c>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="8.25" customHeight="1" thickBot="1">
       <c r="B12" s="22"/>
       <c r="C12" s="20"/>
       <c r="D12" s="32"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:10" s="49" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="14" spans="2:10" s="49" customFormat="1" ht="8.25" customHeight="1">
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
       <c r="F14" s="52"/>
     </row>
-    <row r="15" spans="2:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" s="65" customFormat="1">
       <c r="B15" s="80"/>
       <c r="C15" s="85" t="s">
         <v>66</v>
@@ -7274,14 +7771,14 @@
       </c>
       <c r="F15" s="81"/>
     </row>
-    <row r="16" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" s="49" customFormat="1">
       <c r="B16" s="53"/>
       <c r="C16" s="54"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
     </row>
-    <row r="17" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" s="49" customFormat="1">
       <c r="B17" s="53"/>
       <c r="C17" s="66" t="s">
         <v>107</v>
@@ -7294,12 +7791,12 @@
       </c>
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" s="49" customFormat="1">
       <c r="B18" s="53"/>
       <c r="C18" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="106">
         <v>1.2</v>
       </c>
       <c r="E18" s="55" t="s">
@@ -7307,12 +7804,12 @@
       </c>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" s="49" customFormat="1">
       <c r="B19" s="53"/>
       <c r="C19" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="114">
+      <c r="D19" s="106">
         <v>9.6</v>
       </c>
       <c r="E19" s="55" t="s">
@@ -7320,14 +7817,14 @@
       </c>
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" s="49" customFormat="1">
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" s="49" customFormat="1">
       <c r="B21" s="53"/>
       <c r="C21" s="66" t="s">
         <v>100</v>
@@ -7341,14 +7838,14 @@
       </c>
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" s="49" customFormat="1">
       <c r="B22" s="53"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="116"/>
+      <c r="D22" s="108"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" s="49" customFormat="1">
       <c r="B23" s="53"/>
       <c r="C23" s="66" t="s">
         <v>102</v>
@@ -7362,12 +7859,12 @@
       </c>
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" s="49" customFormat="1">
       <c r="B24" s="53"/>
       <c r="C24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="115">
+      <c r="D24" s="107">
         <f>'Rechner aktives Chlor'!D13</f>
         <v>80.087047229938435</v>
       </c>
@@ -7376,12 +7873,12 @@
       </c>
       <c r="F24" s="56"/>
     </row>
-    <row r="25" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" s="49" customFormat="1">
       <c r="B25" s="53"/>
       <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="115">
+      <c r="D25" s="107">
         <f>'Rechner aktives Chlor'!D14</f>
         <v>51.159750167555572</v>
       </c>
@@ -7390,22 +7887,22 @@
       </c>
       <c r="F25" s="56"/>
     </row>
-    <row r="26" spans="2:6" s="49" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" s="49" customFormat="1" ht="8.25" customHeight="1" thickBot="1">
       <c r="B26" s="61"/>
       <c r="C26" s="70"/>
       <c r="D26" s="71"/>
       <c r="E26" s="72"/>
       <c r="F26" s="64"/>
     </row>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="28" spans="2:6">
       <c r="B28" s="50"/>
       <c r="C28" s="75"/>
       <c r="D28" s="76"/>
       <c r="E28" s="51"/>
       <c r="F28" s="52"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="B29" s="53"/>
       <c r="C29" s="85" t="s">
         <v>112</v>
@@ -7414,14 +7911,14 @@
       <c r="E29" s="77"/>
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="B30" s="53"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31" s="53"/>
       <c r="C31" s="78" t="s">
         <v>73</v>
@@ -7435,22 +7932,22 @@
       </c>
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="15.75" thickBot="1">
       <c r="B32" s="61"/>
       <c r="C32" s="70"/>
       <c r="D32" s="71"/>
       <c r="E32" s="72"/>
       <c r="F32" s="64"/>
     </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="34" spans="2:10">
       <c r="B34" s="50"/>
       <c r="C34" s="75"/>
       <c r="D34" s="76"/>
       <c r="E34" s="51"/>
       <c r="F34" s="52"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="B35" s="53"/>
       <c r="C35" s="85" t="s">
         <v>113</v>
@@ -7458,23 +7955,23 @@
       <c r="D35" s="77"/>
       <c r="E35" s="77"/>
       <c r="F35" s="56"/>
-      <c r="H35" s="117" t="s">
+      <c r="H35" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="53"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="56"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="53"/>
       <c r="C37" s="78" t="s">
         <v>73</v>
@@ -7487,11 +7984,11 @@
         <v>84</v>
       </c>
       <c r="F37" s="56"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" thickBot="1">
       <c r="B38" s="61"/>
       <c r="C38" s="70"/>
       <c r="D38" s="71"/>
@@ -7515,14 +8012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
@@ -7533,7 +8030,7 @@
     <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -7547,7 +8044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
@@ -7559,7 +8056,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="H3" s="5">
         <v>6</v>
       </c>
@@ -7572,7 +8069,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="H4" s="5">
         <v>6.25</v>
       </c>
@@ -7585,7 +8082,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="H5" s="5">
         <v>6.5</v>
       </c>
@@ -7598,7 +8095,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="H6" s="5">
         <v>6.75</v>
       </c>
@@ -7611,7 +8108,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="H7" s="5">
         <v>7</v>
       </c>
@@ -7624,7 +8121,7 @@
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="H8" s="5">
         <v>7.25</v>
       </c>
@@ -7637,7 +8134,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="H9" s="5">
         <v>7.5</v>
       </c>
@@ -7650,7 +8147,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="H10" s="5">
         <v>7.75</v>
       </c>
@@ -7663,7 +8160,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="H11" s="5">
         <v>8</v>
       </c>
@@ -7676,7 +8173,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -7684,13 +8181,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="B22" s="1"/>
     </row>
   </sheetData>
@@ -7704,14 +8201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
@@ -7719,39 +8216,44 @@
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="H3" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="16" spans="1:9">
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -7760,14 +8262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
@@ -7778,7 +8280,7 @@
     <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -7792,7 +8294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
@@ -7804,7 +8306,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="H3" s="5">
         <v>6</v>
       </c>
@@ -7817,7 +8319,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="H4" s="5">
         <v>6.25</v>
       </c>
@@ -7830,7 +8332,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="H5" s="5">
         <v>6.5</v>
       </c>
@@ -7843,7 +8345,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="H6" s="5">
         <v>6.75</v>
       </c>
@@ -7856,7 +8358,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="H7" s="5">
         <v>7</v>
       </c>
@@ -7869,7 +8371,7 @@
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="H8" s="5">
         <v>7.25</v>
       </c>
@@ -7882,7 +8384,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="H9" s="5">
         <v>7.5</v>
       </c>
@@ -7895,7 +8397,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="H10" s="5">
         <v>7.75</v>
       </c>
@@ -7908,7 +8410,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="H11" s="5">
         <v>8</v>
       </c>
@@ -7921,7 +8423,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -7929,13 +8431,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -7949,14 +8451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="2"/>
     <col min="6" max="7" width="6.7109375" style="2" customWidth="1"/>
@@ -7967,7 +8469,7 @@
     <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -7981,7 +8483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
@@ -7993,7 +8495,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="H3" s="5">
         <v>6</v>
       </c>
@@ -8006,7 +8508,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="H4" s="5">
         <v>6.2</v>
       </c>
@@ -8019,7 +8521,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="H5" s="5">
         <v>6.4</v>
       </c>
@@ -8032,7 +8534,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="H6" s="5">
         <v>6.6</v>
       </c>
@@ -8045,7 +8547,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="H7" s="5">
         <v>6.8</v>
       </c>
@@ -8058,7 +8560,7 @@
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="H8" s="5">
         <v>7</v>
       </c>
@@ -8071,7 +8573,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="H9" s="5">
         <v>7.2</v>
       </c>
@@ -8084,7 +8586,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="H10" s="5">
         <v>7.4</v>
       </c>
@@ -8097,7 +8599,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="H11" s="5">
         <v>7.6</v>
       </c>
@@ -8110,8 +8612,8 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="109">
+    <row r="12" spans="1:12">
+      <c r="H12" s="101">
         <v>7.8</v>
       </c>
       <c r="I12" s="5">
@@ -8122,8 +8624,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="109">
+    <row r="13" spans="1:12">
+      <c r="H13" s="101">
         <v>8</v>
       </c>
       <c r="I13" s="5">
@@ -8134,7 +8636,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -8142,13 +8644,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="B23" s="1"/>
     </row>
   </sheetData>
@@ -8159,152 +8661,253 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="1" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H4" s="10">
-        <v>30</v>
-      </c>
-      <c r="I4" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H5" s="10">
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="F3" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>91</v>
+      </c>
+      <c r="H3" s="5">
+        <f>100-G3</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="F4" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>89</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H13" si="0">100-G4</f>
+        <v>11</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="F5" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>86</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="F6" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>83</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="F7" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="G7" s="5">
+        <v>80</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5">
+        <v>76</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="F9" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="F10" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>67</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="F11" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>61</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="F12" s="101">
+        <v>7.4</v>
+      </c>
+      <c r="G12" s="5">
+        <v>56</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="F13" s="101">
+        <v>7.5</v>
+      </c>
+      <c r="G13" s="5">
         <v>50</v>
       </c>
-      <c r="I5" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="10">
-        <v>70</v>
-      </c>
-      <c r="I6" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="10">
-        <v>90</v>
-      </c>
-      <c r="I7" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H8" s="10">
-        <v>100</v>
-      </c>
-      <c r="I8" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="F14" s="101">
+        <v>7.6</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" ref="H14:H16" si="1">100-G14</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="F15" s="101">
+        <v>7.7</v>
+      </c>
+      <c r="G15" s="5">
+        <v>39</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="F16" s="101">
+        <v>7.8</v>
+      </c>
+      <c r="G16" s="5">
+        <v>34</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="10">
-        <v>130</v>
-      </c>
-      <c r="I9" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="H10" s="10">
-        <v>140</v>
-      </c>
-      <c r="I10" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="H11" s="10">
-        <v>160</v>
-      </c>
-      <c r="I11" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="10">
-        <v>180</v>
-      </c>
-      <c r="I12" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="10">
-        <v>200</v>
-      </c>
-      <c r="I13" s="10">
-        <v>6</v>
-      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/excel/Rechentool_Wasserchemie.xlsx
+++ b/excel/Rechentool_Wasserchemie.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschlenstedt\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9615" tabRatio="824"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="12" r:id="rId1"/>
@@ -23,12 +28,12 @@
     <sheet name="Quelle Chlor 2" sheetId="19" r:id="rId14"/>
     <sheet name="Quelle Redox 1" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="131">
   <si>
     <t>pH Wert</t>
   </si>
@@ -707,9 +712,6 @@
     <t>Dichte NaOCL bei 13%</t>
   </si>
   <si>
-    <t>Falsch?!</t>
-  </si>
-  <si>
     <t>Berechnung Dosierung pH Senker</t>
   </si>
   <si>
@@ -747,18 +749,45 @@
   </si>
   <si>
     <t>Quelle pH_5 inkl. Berechnung hinzugefügt; 2. Qellennachweis für die Formel in Quelle pH_2 hinzugefügt</t>
+  </si>
+  <si>
+    <t>DPD1-Wert:</t>
+  </si>
+  <si>
+    <t>Gegenrechnung: (Beispiel)</t>
+  </si>
+  <si>
+    <t>Aktiv freies Chlor:</t>
+  </si>
+  <si>
+    <t>Verhältnis:</t>
+  </si>
+  <si>
+    <t>Zugabemenge DPD1 Erhöhung:</t>
+  </si>
+  <si>
+    <t>Zugabemenge aktives Chlor Erhöhung:</t>
+  </si>
+  <si>
+    <t>Gegenrechnung über Verhältnis:</t>
+  </si>
+  <si>
+    <t>Überprüfung Formel Erhöhung aktives Chlor. Gegenrechnung über Verhältnis stimmt. Berechnung somit vermutlich korrekt</t>
+  </si>
+  <si>
+    <t>Version:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,13 +980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,7 +1236,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1443,30 +1472,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1497,9 +1502,40 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1521,9 +1557,20 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1538,6 +1585,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1549,6 +1597,7 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -1652,13 +1701,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4711-44F4-B6D8-ADB69940E42F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="150409600"/>
         <c:axId val="150411520"/>
       </c:scatterChart>
@@ -1667,6 +1724,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1692,8 +1750,11 @@
               <c:y val="0.89719889180519108"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="150411520"/>
         <c:crosses val="autoZero"/>
@@ -1705,6 +1766,7 @@
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1728,8 +1790,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="150409600"/>
         <c:crosses val="autoZero"/>
@@ -1738,6 +1803,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1748,9 +1814,20 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1765,6 +1842,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1776,6 +1854,7 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -1879,13 +1958,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1B5C-435B-B95D-5D4907B5DECD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="151069056"/>
         <c:axId val="151070976"/>
       </c:scatterChart>
@@ -1894,6 +1981,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1919,8 +2007,11 @@
               <c:y val="0.8971988918051913"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="151070976"/>
         <c:crosses val="autoZero"/>
@@ -1932,6 +2023,7 @@
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1955,9 +2047,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="151069056"/>
         <c:crosses val="autoZero"/>
@@ -1966,6 +2060,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1976,9 +2071,20 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1993,6 +2099,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2004,6 +2111,7 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2119,13 +2227,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0816-45A1-AC85-FA9964234BCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="151145856"/>
         <c:axId val="151184896"/>
       </c:scatterChart>
@@ -2134,6 +2250,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2159,8 +2276,11 @@
               <c:y val="0.8971988918051913"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="151184896"/>
         <c:crosses val="autoZero"/>
@@ -2172,6 +2292,7 @@
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2195,9 +2316,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="151145856"/>
         <c:crosses val="autoZero"/>
@@ -2206,6 +2329,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2216,9 +2340,20 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2233,6 +2368,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2244,6 +2380,7 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2359,12 +2496,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0816-45A1-AC85-FA9964234BCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="49345664"/>
         <c:axId val="49347584"/>
       </c:scatterChart>
@@ -2373,6 +2519,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2398,8 +2545,11 @@
               <c:y val="0.89719889180519152"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="49347584"/>
         <c:crosses val="autoZero"/>
@@ -2411,6 +2561,7 @@
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2434,9 +2585,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="49345664"/>
         <c:crosses val="autoZero"/>
@@ -2445,6 +2598,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2455,9 +2609,20 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2472,6 +2637,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2482,10 +2648,13 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2591,13 +2760,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-169C-4E97-9323-3BBDF1533E7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="150953344"/>
         <c:axId val="150967808"/>
       </c:scatterChart>
@@ -2607,6 +2784,7 @@
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2636,8 +2814,11 @@
               <c:y val="0.91108778069407992"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="150967808"/>
         <c:crosses val="autoZero"/>
@@ -2649,6 +2830,7 @@
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2672,9 +2854,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="150953344"/>
         <c:crosses val="autoZero"/>
@@ -2683,6 +2867,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2693,9 +2878,20 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2710,6 +2906,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2721,10 +2918,13 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -3124,13 +3324,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B06-4ACC-982F-FA0C7BCB6DCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="151252352"/>
         <c:axId val="151254528"/>
       </c:scatterChart>
@@ -3140,6 +3348,7 @@
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3169,8 +3378,11 @@
               <c:y val="0.91108778069407992"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="151254528"/>
         <c:crosses val="autoZero"/>
@@ -3181,6 +3393,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3199,8 +3412,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="151252352"/>
         <c:crosses val="autoZero"/>
@@ -3209,6 +3425,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3219,9 +3436,20 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3236,6 +3464,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3247,10 +3476,13 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="5"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -3289,13 +3521,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-61A9-4F41-ACF6-D58C93B2A71B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="151057536"/>
         <c:axId val="151059456"/>
       </c:scatterChart>
@@ -3305,6 +3545,7 @@
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3334,8 +3575,11 @@
               <c:y val="0.91108778069407992"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="151059456"/>
         <c:crosses val="autoZero"/>
@@ -3346,6 +3590,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3364,8 +3609,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="151057536"/>
         <c:crosses val="autoZero"/>
@@ -3374,6 +3622,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4168,9 +4417,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4208,9 +4457,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4242,9 +4491,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4276,9 +4526,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4451,12 +4702,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="49"/>
     <col min="3" max="3" width="5.5703125" style="49" customWidth="1"/>
@@ -4466,22 +4717,22 @@
     <col min="9" max="16384" width="11.42578125" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="B2" s="117" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="109" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="7.5" customHeight="1"/>
-    <row r="4" spans="2:14">
-      <c r="B4" s="118" t="s">
+    <row r="3" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="110" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="7.5" customHeight="1"/>
-    <row r="6" spans="2:14">
+    <row r="5" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="100" t="s">
         <v>89</v>
       </c>
@@ -4489,8 +4740,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="7.5" customHeight="1"/>
-    <row r="8" spans="2:14">
+    <row r="7" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="99" t="s">
         <v>89</v>
       </c>
@@ -4498,214 +4749,230 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="117" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="109" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="7.5" customHeight="1"/>
-    <row r="13" spans="2:14" ht="15" customHeight="1">
-      <c r="B13" s="109" t="s">
+    <row r="13" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111"/>
-      <c r="I13" s="115" t="s">
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="121"/>
+      <c r="I14" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="118"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="118"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="118"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="118"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="126"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="126"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="126"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="126"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="114"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="126"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="126"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="111"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="126"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="114"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="126"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="119" t="s">
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="112" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="120" t="s">
+      <c r="C26" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="121" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="122" t="s">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="115">
+        <v>44386</v>
+      </c>
+      <c r="C27" s="116">
+        <v>1</v>
+      </c>
+      <c r="D27" s="49" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="123">
-        <v>44386</v>
-      </c>
-      <c r="C26" s="124">
-        <v>1</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="30">
-      <c r="B27" s="123">
+    <row r="28" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="115">
         <v>44387</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C28" s="116">
         <v>2</v>
       </c>
-      <c r="D27" s="68" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="C28" s="124"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="C29" s="124"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="C30" s="124"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="C31" s="124"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="C32" s="124"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="124"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="124"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="124"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="124"/>
+      <c r="D28" s="68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="115">
+        <v>44389</v>
+      </c>
+      <c r="C29" s="116">
+        <v>3</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="116"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="116"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="116"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="116"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="116"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="116"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="116"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B13:G14"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="I13:L20"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="B17:G18"/>
+    <mergeCell ref="B20:G21"/>
+    <mergeCell ref="I14:L21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B13:G14" location="'Rechner aktives Chlor'!A1" display="Berechnung aktiv wirksames Chlor "/>
-    <hyperlink ref="B16:G17" location="'Rechner pH Senker Dosierung'!A1" display="Berechnung Dosierung pH Senker"/>
-    <hyperlink ref="B19:G20" location="'Rechner Chlor Dosierung'!A1" display="Berechnung Dosierung Chlor"/>
+    <hyperlink ref="B14:G15" location="'Rechner aktives Chlor'!A1" display="Berechnung aktiv wirksames Chlor "/>
+    <hyperlink ref="B17:G18" location="'Rechner pH Senker Dosierung'!A1" display="Berechnung Dosierung pH Senker"/>
+    <hyperlink ref="B20:G21" location="'Rechner Chlor Dosierung'!A1" display="Berechnung Dosierung Chlor"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4725,7 +4992,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H2" s="9" t="s">
         <v>79</v>
       </c>
@@ -4733,7 +5000,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H3" s="10">
         <v>0</v>
       </c>
@@ -4741,7 +5008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="10">
         <v>30</v>
       </c>
@@ -4749,7 +5016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5" s="10">
         <v>50</v>
       </c>
@@ -4757,7 +5024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="10">
         <v>70</v>
       </c>
@@ -4765,7 +5032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" s="10">
         <v>90</v>
       </c>
@@ -4773,7 +5040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="10">
         <v>100</v>
       </c>
@@ -4781,7 +5048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -4795,7 +5062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -4807,7 +5074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="H11" s="10">
@@ -4817,7 +5084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="10">
         <v>180</v>
       </c>
@@ -4825,7 +5092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="10">
         <v>200</v>
       </c>
@@ -4843,14 +5110,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
@@ -5110,7 +5377,7 @@
     <col min="16136" max="16136" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5118,65 +5385,65 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="18">
+    <row r="17" spans="3:9" ht="18" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -5187,7 +5454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="18.75">
+    <row r="18" spans="3:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>31</v>
       </c>
@@ -5195,37 +5462,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="3:9">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:9">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:9">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="3:9">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="3:9">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="41" t="s">
         <v>39</v>
       </c>
@@ -5241,7 +5508,7 @@
       </c>
       <c r="I27" s="42"/>
     </row>
-    <row r="28" spans="3:9">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="41" t="s">
         <v>42</v>
       </c>
@@ -5253,7 +5520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="3:9">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="41" t="s">
         <v>44</v>
       </c>
@@ -5265,7 +5532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="3:9">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="41" t="s">
         <v>46</v>
       </c>
@@ -5277,7 +5544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="3:9">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="41" t="s">
         <v>47</v>
       </c>
@@ -5289,7 +5556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75">
+    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
         <v>9</v>
       </c>
@@ -5308,7 +5575,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18">
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -5320,7 +5587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.75">
+    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
         <v>9</v>
       </c>
@@ -5339,7 +5606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18">
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -5351,7 +5618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18.75">
+    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>49</v>
       </c>
@@ -5363,7 +5630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18">
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>50</v>
       </c>
@@ -5383,7 +5650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C45" s="41" t="s">
         <v>53</v>
       </c>
@@ -5403,12 +5670,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C47" s="41"/>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
     </row>
-    <row r="48" spans="1:10" ht="18">
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="H48" s="44" t="s">
         <v>55</v>
       </c>
@@ -5420,7 +5687,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="18">
+    <row r="49" spans="3:8" ht="18" x14ac:dyDescent="0.35">
       <c r="C49" s="44" t="s">
         <v>57</v>
       </c>
@@ -5433,10 +5700,10 @@
       </c>
       <c r="H49" s="46"/>
     </row>
-    <row r="50" spans="3:8">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H50" s="46"/>
     </row>
-    <row r="51" spans="3:8">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="47"/>
       <c r="D51" s="48"/>
       <c r="E51" s="47"/>
@@ -5451,16 +5718,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -5472,7 +5739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" thickBot="1">
+    <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="91" t="s">
         <v>82</v>
       </c>
@@ -5480,7 +5747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G3" s="87">
         <v>1</v>
       </c>
@@ -5488,7 +5755,7 @@
         <v>1.0038</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G4" s="87">
         <v>2</v>
       </c>
@@ -5496,7 +5763,7 @@
         <v>1.0104</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G5" s="87">
         <v>3</v>
       </c>
@@ -5504,7 +5771,7 @@
         <v>1.0168999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G6" s="87">
         <v>4</v>
       </c>
@@ -5512,7 +5779,7 @@
         <v>1.0234000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G7" s="87">
         <v>5</v>
       </c>
@@ -5520,7 +5787,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8" s="87">
         <v>6</v>
       </c>
@@ -5528,7 +5795,7 @@
         <v>1.0367</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G9" s="87">
         <v>7</v>
       </c>
@@ -5536,7 +5803,7 @@
         <v>1.0434000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="87">
         <v>8</v>
       </c>
@@ -5544,7 +5811,7 @@
         <v>1.0502</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="87">
         <v>9</v>
       </c>
@@ -5552,7 +5819,7 @@
         <v>1.0570999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G12" s="87">
         <v>10</v>
       </c>
@@ -5560,7 +5827,7 @@
         <v>1.0640000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" s="87">
         <v>12</v>
       </c>
@@ -5568,7 +5835,7 @@
         <v>1.0780000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G14" s="87">
         <v>14</v>
       </c>
@@ -5576,7 +5843,7 @@
         <v>1.0922000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" s="87">
         <v>16</v>
       </c>
@@ -5584,7 +5851,7 @@
         <v>1.1067</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="87">
         <v>18</v>
       </c>
@@ -5592,7 +5859,7 @@
         <v>1.1214999999999999</v>
       </c>
     </row>
-    <row r="17" spans="7:8">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="87">
         <v>20</v>
       </c>
@@ -5600,7 +5867,7 @@
         <v>1.1365000000000001</v>
       </c>
     </row>
-    <row r="18" spans="7:8">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="87">
         <v>22</v>
       </c>
@@ -5608,7 +5875,7 @@
         <v>1.1516999999999999</v>
       </c>
     </row>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19" s="87">
         <v>24</v>
       </c>
@@ -5616,7 +5883,7 @@
         <v>1.1672</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G20" s="87">
         <v>26</v>
       </c>
@@ -5624,7 +5891,7 @@
         <v>1.1829000000000001</v>
       </c>
     </row>
-    <row r="21" spans="7:8">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G21" s="87">
         <v>28</v>
       </c>
@@ -5632,7 +5899,7 @@
         <v>1.1989000000000001</v>
       </c>
     </row>
-    <row r="22" spans="7:8">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G22" s="87">
         <v>30</v>
       </c>
@@ -5640,7 +5907,7 @@
         <v>1.2150000000000001</v>
       </c>
     </row>
-    <row r="23" spans="7:8">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G23" s="87">
         <v>32</v>
       </c>
@@ -5648,7 +5915,7 @@
         <v>1.2314000000000001</v>
       </c>
     </row>
-    <row r="24" spans="7:8">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G24" s="87">
         <v>34</v>
       </c>
@@ -5656,7 +5923,7 @@
         <v>1.2479</v>
       </c>
     </row>
-    <row r="25" spans="7:8">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G25" s="87">
         <v>36</v>
       </c>
@@ -5664,7 +5931,7 @@
         <v>1.2646999999999999</v>
       </c>
     </row>
-    <row r="26" spans="7:8">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G26" s="87">
         <v>38</v>
       </c>
@@ -5672,7 +5939,7 @@
         <v>1.2818000000000001</v>
       </c>
     </row>
-    <row r="27" spans="7:8">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G27" s="87">
         <v>40</v>
       </c>
@@ -5680,7 +5947,7 @@
         <v>1.2990999999999999</v>
       </c>
     </row>
-    <row r="28" spans="7:8">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G28" s="87">
         <v>42</v>
       </c>
@@ -5688,7 +5955,7 @@
         <v>1.3167</v>
       </c>
     </row>
-    <row r="29" spans="7:8">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G29" s="87">
         <v>44</v>
       </c>
@@ -5696,7 +5963,7 @@
         <v>1.3346</v>
       </c>
     </row>
-    <row r="30" spans="7:8">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G30" s="87">
         <v>46</v>
       </c>
@@ -5704,7 +5971,7 @@
         <v>1.353</v>
       </c>
     </row>
-    <row r="31" spans="7:8">
+    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G31" s="87">
         <v>48</v>
       </c>
@@ -5712,7 +5979,7 @@
         <v>1.3718999999999999</v>
       </c>
     </row>
-    <row r="32" spans="7:8">
+    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G32" s="87">
         <v>50</v>
       </c>
@@ -5720,7 +5987,7 @@
         <v>1.3911</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G33" s="87">
         <v>52</v>
       </c>
@@ -5728,7 +5995,7 @@
         <v>1.4109</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G34" s="87">
         <v>54</v>
       </c>
@@ -5736,7 +6003,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G35" s="87">
         <v>56</v>
       </c>
@@ -5744,7 +6011,7 @@
         <v>1.4516</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G36" s="87">
         <v>58</v>
       </c>
@@ -5752,7 +6019,7 @@
         <v>1.4725999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G37" s="87">
         <v>60</v>
       </c>
@@ -5760,7 +6027,7 @@
         <v>1.494</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G38" s="87">
         <v>62</v>
       </c>
@@ -5768,7 +6035,7 @@
         <v>1.5157</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G39" s="87">
         <v>64</v>
       </c>
@@ -5776,7 +6043,7 @@
         <v>1.5378000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G40" s="87">
         <v>66</v>
       </c>
@@ -5784,7 +6051,7 @@
         <v>1.5602</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G41" s="87">
         <v>68</v>
       </c>
@@ -5792,7 +6059,7 @@
         <v>1.5829</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G42" s="87">
         <v>70</v>
       </c>
@@ -5800,7 +6067,7 @@
         <v>1.6059000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G43" s="87">
         <v>72</v>
       </c>
@@ -5808,7 +6075,7 @@
         <v>1.6292</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G44" s="87">
         <v>74</v>
       </c>
@@ -5816,7 +6083,7 @@
         <v>1.6526000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G45" s="87">
         <v>76</v>
       </c>
@@ -5824,7 +6091,7 @@
         <v>1.6760999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -5838,7 +6105,7 @@
         <v>1.6994</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -5849,7 +6116,7 @@
         <v>1.7221</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G48" s="87">
         <v>82</v>
       </c>
@@ -5857,7 +6124,7 @@
         <v>1.7437</v>
       </c>
     </row>
-    <row r="49" spans="7:8">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G49" s="87">
         <v>84</v>
       </c>
@@ -5865,7 +6132,7 @@
         <v>1.7639</v>
       </c>
     </row>
-    <row r="50" spans="7:8">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G50" s="87">
         <v>86</v>
       </c>
@@ -5873,7 +6140,7 @@
         <v>1.7818000000000001</v>
       </c>
     </row>
-    <row r="51" spans="7:8">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G51" s="87">
         <v>88</v>
       </c>
@@ -5881,7 +6148,7 @@
         <v>1.7968</v>
       </c>
     </row>
-    <row r="52" spans="7:8">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G52" s="87">
         <v>90</v>
       </c>
@@ -5889,7 +6156,7 @@
         <v>1.8090999999999999</v>
       </c>
     </row>
-    <row r="53" spans="7:8">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G53" s="87">
         <v>91</v>
       </c>
@@ -5897,7 +6164,7 @@
         <v>1.8142</v>
       </c>
     </row>
-    <row r="54" spans="7:8">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G54" s="87">
         <v>92</v>
       </c>
@@ -5905,7 +6172,7 @@
         <v>1.8188</v>
       </c>
     </row>
-    <row r="55" spans="7:8">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G55" s="87">
         <v>93</v>
       </c>
@@ -5913,7 +6180,7 @@
         <v>1.8227</v>
       </c>
     </row>
-    <row r="56" spans="7:8">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G56" s="87">
         <v>94</v>
       </c>
@@ -5921,7 +6188,7 @@
         <v>1.8260000000000001</v>
       </c>
     </row>
-    <row r="57" spans="7:8">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G57" s="87">
         <v>95</v>
       </c>
@@ -5929,7 +6196,7 @@
         <v>1.8286</v>
       </c>
     </row>
-    <row r="58" spans="7:8">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G58" s="87">
         <v>96</v>
       </c>
@@ -5937,7 +6204,7 @@
         <v>1.8305</v>
       </c>
     </row>
-    <row r="59" spans="7:8">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G59" s="87">
         <v>97</v>
       </c>
@@ -5945,7 +6212,7 @@
         <v>1.8313999999999999</v>
       </c>
     </row>
-    <row r="60" spans="7:8">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G60" s="87">
         <v>98</v>
       </c>
@@ -5953,7 +6220,7 @@
         <v>1.831</v>
       </c>
     </row>
-    <row r="61" spans="7:8">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G61" s="87">
         <v>99</v>
       </c>
@@ -5961,7 +6228,7 @@
         <v>1.8291999999999999</v>
       </c>
     </row>
-    <row r="62" spans="7:8" ht="15.75" thickBot="1">
+    <row r="62" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G62" s="89">
         <v>100</v>
       </c>
@@ -5979,12 +6246,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
@@ -6244,7 +6511,7 @@
     <col min="16136" max="16136" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -6252,12 +6519,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -6268,12 +6535,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
@@ -6533,7 +6800,7 @@
     <col min="16136" max="16136" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -6541,12 +6808,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
@@ -6557,16 +6824,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -6578,7 +6845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -6586,7 +6853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -6598,14 +6865,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" customWidth="1"/>
@@ -6614,15 +6879,15 @@
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:13" ht="8.25" customHeight="1">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="84" t="s">
         <v>13</v>
@@ -6630,21 +6895,21 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="111"/>
-    </row>
-    <row r="4" spans="2:13">
+      <c r="J3" s="121"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="114"/>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="I4" s="122"/>
+      <c r="J4" s="124"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="26" t="s">
         <v>60</v>
@@ -6657,7 +6922,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="16" t="s">
         <v>61</v>
@@ -6670,7 +6935,7 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="16" t="s">
         <v>62</v>
@@ -6683,22 +6948,22 @@
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
+    <row r="8" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
       <c r="C8" s="20"/>
       <c r="D8" s="32"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:13" ht="8.25" customHeight="1">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="2:13" s="2" customFormat="1">
+    <row r="11" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="82"/>
       <c r="C11" s="84" t="s">
         <v>15</v>
@@ -6711,14 +6976,14 @@
       </c>
       <c r="F11" s="83"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="27"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
         <v>10</v>
@@ -6739,7 +7004,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="16" t="s">
         <v>12</v>
@@ -6753,14 +7018,14 @@
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="19"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="30" t="s">
         <v>14</v>
@@ -6774,22 +7039,22 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="28"/>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="19" spans="2:13" ht="8.25" customHeight="1">
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1">
+    <row r="20" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="82"/>
       <c r="C20" s="84" t="s">
         <v>15</v>
@@ -6802,14 +7067,14 @@
       </c>
       <c r="F20" s="83"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="27"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="16" t="s">
         <v>10</v>
@@ -6830,7 +7095,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="16" t="s">
         <v>12</v>
@@ -6844,14 +7109,14 @@
       </c>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="19"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="30" t="s">
         <v>14</v>
@@ -6865,22 +7130,22 @@
       </c>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="28"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="28" spans="2:13" ht="8.25" customHeight="1">
+    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="84" t="s">
         <v>15</v>
@@ -6893,14 +7158,14 @@
       </c>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="27"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="16" t="s">
         <v>10</v>
@@ -6921,7 +7186,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="16" t="s">
         <v>12</v>
@@ -6935,14 +7200,14 @@
       </c>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="19"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="30" t="s">
         <v>14</v>
@@ -6956,22 +7221,22 @@
       </c>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
+    <row r="35" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
       <c r="C35" s="28"/>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="37" spans="2:13" ht="8.25" customHeight="1">
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
       <c r="C38" s="84" t="s">
         <v>15</v>
@@ -6984,14 +7249,14 @@
       </c>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="C39" s="27"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
       <c r="C40" s="16" t="s">
         <v>10</v>
@@ -7012,7 +7277,7 @@
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="C41" s="16" t="s">
         <v>12</v>
@@ -7026,14 +7291,14 @@
       </c>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="19"/>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="30" t="s">
         <v>14</v>
@@ -7047,25 +7312,25 @@
       </c>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
+    <row r="44" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
       <c r="C44" s="28"/>
       <c r="D44" s="33"/>
       <c r="E44" s="34"/>
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="2:13" ht="15.75" thickBot="1">
+    <row r="45" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="2:13" ht="8.25" customHeight="1">
+    <row r="46" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
       <c r="D46" s="23"/>
       <c r="E46" s="14"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="84" t="s">
         <v>17</v>
@@ -7078,14 +7343,14 @@
       </c>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="C49" s="16" t="s">
         <v>12</v>
@@ -7099,14 +7364,14 @@
       </c>
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="19"/>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
       <c r="C51" s="30" t="s">
         <v>14</v>
@@ -7120,7 +7385,7 @@
       </c>
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="2:6" ht="8.25" customHeight="1" thickBot="1">
+    <row r="52" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
       <c r="C52" s="28"/>
       <c r="D52" s="33"/>
@@ -7150,14 +7415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="49" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" style="49" customWidth="1"/>
@@ -7168,15 +7433,15 @@
     <col min="7" max="16384" width="11.42578125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:10" ht="8.25" customHeight="1">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="52"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="53"/>
       <c r="C3" s="85" t="s">
         <v>13</v>
@@ -7184,21 +7449,21 @@
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="56"/>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="111"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="J3" s="121"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="F4" s="56"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="114"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="I4" s="122"/>
+      <c r="J4" s="124"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="53"/>
       <c r="C5" s="57" t="s">
         <v>59</v>
@@ -7211,7 +7476,7 @@
       </c>
       <c r="F5" s="56"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="53"/>
       <c r="C6" s="55" t="s">
         <v>62</v>
@@ -7224,7 +7489,7 @@
       </c>
       <c r="F6" s="56"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="53"/>
       <c r="C7" s="55" t="s">
         <v>63</v>
@@ -7237,7 +7502,7 @@
       </c>
       <c r="F7" s="56"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="53"/>
       <c r="C8" s="60" t="s">
         <v>65</v>
@@ -7250,22 +7515,22 @@
       </c>
       <c r="F8" s="56"/>
     </row>
-    <row r="9" spans="2:10" ht="8.25" customHeight="1" thickBot="1">
+    <row r="9" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
       <c r="E9" s="62"/>
       <c r="F9" s="64"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="11" spans="2:10" ht="8.25" customHeight="1">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="50"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
       <c r="F11" s="52"/>
     </row>
-    <row r="12" spans="2:10" s="65" customFormat="1">
+    <row r="12" spans="2:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="80"/>
       <c r="C12" s="85" t="s">
         <v>66</v>
@@ -7276,14 +7541,14 @@
       <c r="E12" s="77"/>
       <c r="F12" s="81"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="53"/>
       <c r="C13" s="54"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="56"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="53"/>
       <c r="C14" s="66" t="s">
         <v>67</v>
@@ -7294,14 +7559,14 @@
       <c r="E14" s="55"/>
       <c r="F14" s="56"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="53"/>
       <c r="C15" s="54"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="56"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="53"/>
       <c r="C16" s="54" t="str">
         <f>"pH "&amp;D6&amp;":"</f>
@@ -7311,7 +7576,7 @@
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
     </row>
-    <row r="17" spans="2:13" ht="18">
+    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="53"/>
       <c r="C17" s="66" t="s">
         <v>32</v>
@@ -7325,7 +7590,7 @@
       </c>
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="2:13" ht="18">
+    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="53"/>
       <c r="C18" s="66" t="s">
         <v>69</v>
@@ -7339,7 +7604,7 @@
       </c>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="53"/>
       <c r="C19" s="54" t="str">
         <f>"pH "&amp;D8&amp;":"</f>
@@ -7349,7 +7614,7 @@
       <c r="E19" s="55"/>
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="2:13" ht="18">
+    <row r="20" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="53"/>
       <c r="C20" s="66" t="s">
         <v>32</v>
@@ -7363,7 +7628,7 @@
       </c>
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="2:13" ht="18">
+    <row r="21" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="53"/>
       <c r="C21" s="66" t="s">
         <v>69</v>
@@ -7384,7 +7649,7 @@
       <c r="L21" s="68"/>
       <c r="M21" s="68"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="53"/>
       <c r="C22" s="66"/>
       <c r="D22" s="67"/>
@@ -7398,7 +7663,7 @@
       <c r="L22" s="68"/>
       <c r="M22" s="68"/>
     </row>
-    <row r="23" spans="2:13" ht="18">
+    <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="53"/>
       <c r="C23" s="66" t="s">
         <v>49</v>
@@ -7412,25 +7677,25 @@
       </c>
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="2:13" ht="8.25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="61"/>
       <c r="C24" s="70"/>
       <c r="D24" s="71"/>
       <c r="E24" s="72"/>
       <c r="F24" s="64"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75" thickBot="1">
+    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
     </row>
-    <row r="26" spans="2:13" ht="8.25" customHeight="1">
+    <row r="26" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="50"/>
       <c r="C26" s="75"/>
       <c r="D26" s="76"/>
       <c r="E26" s="51"/>
       <c r="F26" s="52"/>
     </row>
-    <row r="27" spans="2:13" ht="18">
+    <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="53"/>
       <c r="C27" s="85" t="s">
         <v>103</v>
@@ -7441,14 +7706,14 @@
       <c r="E27" s="77"/>
       <c r="F27" s="56"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="53"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="56"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="53"/>
       <c r="C29" s="55" t="s">
         <v>53</v>
@@ -7461,7 +7726,7 @@
       </c>
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
       <c r="C30" s="55" t="s">
         <v>71</v>
@@ -7474,14 +7739,14 @@
       </c>
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="53"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="69"/>
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="53"/>
       <c r="C32" s="78" t="s">
         <v>73</v>
@@ -7495,22 +7760,22 @@
       </c>
       <c r="F32" s="56"/>
     </row>
-    <row r="33" spans="2:6" ht="8.25" customHeight="1" thickBot="1">
+    <row r="33" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="61"/>
       <c r="C33" s="70"/>
       <c r="D33" s="71"/>
       <c r="E33" s="72"/>
       <c r="F33" s="64"/>
     </row>
-    <row r="34" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="35" spans="2:6" ht="8.25" customHeight="1">
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="50"/>
       <c r="C35" s="75"/>
       <c r="D35" s="76"/>
       <c r="E35" s="51"/>
       <c r="F35" s="52"/>
     </row>
-    <row r="36" spans="2:6" ht="18">
+    <row r="36" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="85" t="s">
         <v>104</v>
@@ -7523,14 +7788,14 @@
       </c>
       <c r="F36" s="56"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="53"/>
       <c r="C37" s="55"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="56"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="53"/>
       <c r="C38" s="55" t="s">
         <v>53</v>
@@ -7543,7 +7808,7 @@
       </c>
       <c r="F38" s="56"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
       <c r="C39" s="55" t="s">
         <v>71</v>
@@ -7556,7 +7821,7 @@
       </c>
       <c r="F39" s="56"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="53"/>
       <c r="C40" s="55" t="s">
         <v>83</v>
@@ -7570,14 +7835,14 @@
       </c>
       <c r="F40" s="56"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="53"/>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
       <c r="E41" s="69"/>
       <c r="F41" s="56"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="53"/>
       <c r="C42" s="78" t="s">
         <v>73</v>
@@ -7591,7 +7856,7 @@
       </c>
       <c r="F42" s="56"/>
     </row>
-    <row r="43" spans="2:6" ht="8.25" customHeight="1" thickBot="1">
+    <row r="43" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="61"/>
       <c r="C43" s="70"/>
       <c r="D43" s="71"/>
@@ -7615,14 +7880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" customWidth="1"/>
@@ -7631,15 +7896,15 @@
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:10" ht="8.25" customHeight="1">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="84" t="s">
         <v>13</v>
@@ -7647,21 +7912,21 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="111"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="J3" s="121"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="114"/>
-    </row>
-    <row r="5" spans="2:10" s="49" customFormat="1">
+      <c r="I4" s="122"/>
+      <c r="J4" s="124"/>
+    </row>
+    <row r="5" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="53"/>
       <c r="C5" s="55" t="s">
         <v>63</v>
@@ -7674,40 +7939,40 @@
       </c>
       <c r="F5" s="56"/>
     </row>
-    <row r="6" spans="2:10" s="49" customFormat="1">
+    <row r="6" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="53"/>
       <c r="C6" s="55"/>
       <c r="D6" s="105"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="24">
-        <v>1.66</v>
+        <v>1.18</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="30" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="24">
-        <v>1.76</v>
+        <v>1.28</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="104" t="s">
         <v>98</v>
@@ -7716,7 +7981,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="29" t="s">
         <v>97</v>
@@ -7730,7 +7995,7 @@
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="30" t="s">
         <v>96</v>
@@ -7743,22 +8008,22 @@
       </c>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="2:10" ht="8.25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="20"/>
       <c r="D12" s="32"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="14" spans="2:10" s="49" customFormat="1" ht="8.25" customHeight="1">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:10" s="49" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
       <c r="F14" s="52"/>
     </row>
-    <row r="15" spans="2:10" s="65" customFormat="1">
+    <row r="15" spans="2:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="80"/>
       <c r="C15" s="85" t="s">
         <v>66</v>
@@ -7771,14 +8036,14 @@
       </c>
       <c r="F15" s="81"/>
     </row>
-    <row r="16" spans="2:10" s="49" customFormat="1">
+    <row r="16" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="53"/>
       <c r="C16" s="54"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
     </row>
-    <row r="17" spans="2:6" s="49" customFormat="1">
+    <row r="17" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="53"/>
       <c r="C17" s="66" t="s">
         <v>107</v>
@@ -7791,7 +8056,7 @@
       </c>
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="2:6" s="49" customFormat="1">
+    <row r="18" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="53"/>
       <c r="C18" s="66" t="s">
         <v>108</v>
@@ -7804,7 +8069,7 @@
       </c>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="2:6" s="49" customFormat="1">
+    <row r="19" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="53"/>
       <c r="C19" s="66" t="s">
         <v>105</v>
@@ -7817,14 +8082,14 @@
       </c>
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="2:6" s="49" customFormat="1">
+    <row r="20" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="2:6" s="49" customFormat="1">
+    <row r="21" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="53"/>
       <c r="C21" s="66" t="s">
         <v>100</v>
@@ -7838,14 +8103,14 @@
       </c>
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="2:6" s="49" customFormat="1">
+    <row r="22" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="53"/>
       <c r="C22" s="66"/>
       <c r="D22" s="108"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="2:6" s="49" customFormat="1">
+    <row r="23" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53"/>
       <c r="C23" s="66" t="s">
         <v>102</v>
@@ -7859,7 +8124,7 @@
       </c>
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="2:6" s="49" customFormat="1">
+    <row r="24" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="53"/>
       <c r="C24" s="16" t="s">
         <v>10</v>
@@ -7873,7 +8138,7 @@
       </c>
       <c r="F24" s="56"/>
     </row>
-    <row r="25" spans="2:6" s="49" customFormat="1">
+    <row r="25" spans="2:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53"/>
       <c r="C25" s="16" t="s">
         <v>12</v>
@@ -7887,38 +8152,38 @@
       </c>
       <c r="F25" s="56"/>
     </row>
-    <row r="26" spans="2:6" s="49" customFormat="1" ht="8.25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:6" s="49" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="61"/>
       <c r="C26" s="70"/>
       <c r="D26" s="71"/>
       <c r="E26" s="72"/>
       <c r="F26" s="64"/>
     </row>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="28" spans="2:6">
+    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="50"/>
       <c r="C28" s="75"/>
       <c r="D28" s="76"/>
       <c r="E28" s="51"/>
       <c r="F28" s="52"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="53"/>
       <c r="C29" s="85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="77"/>
       <c r="E29" s="77"/>
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="53"/>
       <c r="C31" s="78" t="s">
         <v>73</v>
@@ -7932,46 +8197,65 @@
       </c>
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1">
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="61"/>
       <c r="C32" s="70"/>
       <c r="D32" s="71"/>
       <c r="E32" s="72"/>
       <c r="F32" s="64"/>
     </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="34" spans="2:10">
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="50"/>
       <c r="C34" s="75"/>
       <c r="D34" s="76"/>
       <c r="E34" s="51"/>
       <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="H34" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="77"/>
       <c r="E35" s="77"/>
       <c r="F35" s="56"/>
-      <c r="H35" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="H35" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127">
+        <v>1.18</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="56"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="H36" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127">
+        <v>0.48</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="53"/>
       <c r="C37" s="78" t="s">
         <v>73</v>
@@ -7984,21 +8268,61 @@
         <v>84</v>
       </c>
       <c r="F37" s="56"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1">
+      <c r="H37" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127">
+        <f>K35/K36</f>
+        <v>2.4583333333333335</v>
+      </c>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="61"/>
       <c r="C38" s="70"/>
       <c r="D38" s="71"/>
       <c r="E38" s="72"/>
       <c r="F38" s="64"/>
     </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="K39">
+        <v>86.81</v>
+      </c>
+      <c r="L39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H40" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="K40" s="128">
+        <v>210.86</v>
+      </c>
+      <c r="L40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" s="128">
+        <f>K39*K37</f>
+        <v>213.40791666666669</v>
+      </c>
+      <c r="L42" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="I3:J4"/>
-    <mergeCell ref="H35:J37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3:J4" location="Start!A1" display="Zurück"/>
@@ -8012,14 +8336,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
@@ -8030,7 +8354,7 @@
     <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -8044,7 +8368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8056,7 +8380,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H3" s="5">
         <v>6</v>
       </c>
@@ -8069,7 +8393,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="5">
         <v>6.25</v>
       </c>
@@ -8082,7 +8406,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5" s="5">
         <v>6.5</v>
       </c>
@@ -8095,7 +8419,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="5">
         <v>6.75</v>
       </c>
@@ -8108,7 +8432,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" s="5">
         <v>7</v>
       </c>
@@ -8121,7 +8445,7 @@
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="5">
         <v>7.25</v>
       </c>
@@ -8134,7 +8458,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="5">
         <v>7.5</v>
       </c>
@@ -8147,7 +8471,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10" s="5">
         <v>7.75</v>
       </c>
@@ -8160,7 +8484,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" s="5">
         <v>8</v>
       </c>
@@ -8173,7 +8497,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -8181,13 +8505,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
   </sheetData>
@@ -8201,14 +8525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
@@ -8216,20 +8540,20 @@
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H3" s="8"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -8237,18 +8561,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -8262,14 +8586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
@@ -8280,7 +8604,7 @@
     <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -8294,7 +8618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8306,7 +8630,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H3" s="5">
         <v>6</v>
       </c>
@@ -8319,7 +8643,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="5">
         <v>6.25</v>
       </c>
@@ -8332,7 +8656,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5" s="5">
         <v>6.5</v>
       </c>
@@ -8345,7 +8669,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="5">
         <v>6.75</v>
       </c>
@@ -8358,7 +8682,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" s="5">
         <v>7</v>
       </c>
@@ -8371,7 +8695,7 @@
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="5">
         <v>7.25</v>
       </c>
@@ -8384,7 +8708,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="5">
         <v>7.5</v>
       </c>
@@ -8397,7 +8721,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10" s="5">
         <v>7.75</v>
       </c>
@@ -8410,7 +8734,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" s="5">
         <v>8</v>
       </c>
@@ -8423,7 +8747,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -8431,13 +8755,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -8451,14 +8775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="2"/>
     <col min="6" max="7" width="6.7109375" style="2" customWidth="1"/>
@@ -8469,7 +8793,7 @@
     <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -8483,7 +8807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8495,7 +8819,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H3" s="5">
         <v>6</v>
       </c>
@@ -8508,7 +8832,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="5">
         <v>6.2</v>
       </c>
@@ -8521,7 +8845,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5" s="5">
         <v>6.4</v>
       </c>
@@ -8534,7 +8858,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="5">
         <v>6.6</v>
       </c>
@@ -8547,7 +8871,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" s="5">
         <v>6.8</v>
       </c>
@@ -8560,7 +8884,7 @@
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="5">
         <v>7</v>
       </c>
@@ -8573,7 +8897,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="5">
         <v>7.2</v>
       </c>
@@ -8586,7 +8910,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10" s="5">
         <v>7.4</v>
       </c>
@@ -8599,7 +8923,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" s="5">
         <v>7.6</v>
       </c>
@@ -8612,7 +8936,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="101">
         <v>7.8</v>
       </c>
@@ -8624,7 +8948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="101">
         <v>8</v>
       </c>
@@ -8636,7 +8960,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -8644,13 +8968,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
   </sheetData>
@@ -8661,14 +8985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -8677,7 +9001,7 @@
     <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -8691,7 +9015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8703,7 +9027,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F3" s="5">
         <v>6.5</v>
       </c>
@@ -8716,7 +9040,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" s="5">
         <v>6.6</v>
       </c>
@@ -8729,7 +9053,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" s="5">
         <v>6.7</v>
       </c>
@@ -8742,7 +9066,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" s="5">
         <v>6.8</v>
       </c>
@@ -8755,7 +9079,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="5">
         <v>6.9</v>
       </c>
@@ -8768,7 +9092,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="5">
         <v>7</v>
       </c>
@@ -8781,7 +9105,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="5">
         <v>7.1</v>
       </c>
@@ -8794,7 +9118,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="5">
         <v>7.2</v>
       </c>
@@ -8807,7 +9131,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" s="5">
         <v>7.3</v>
       </c>
@@ -8820,7 +9144,7 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="101">
         <v>7.4</v>
       </c>
@@ -8832,7 +9156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" s="101">
         <v>7.5</v>
       </c>
@@ -8844,7 +9168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="101">
         <v>7.6</v>
       </c>
@@ -8856,7 +9180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="101">
         <v>7.7</v>
       </c>
@@ -8868,7 +9192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="101">
         <v>7.8</v>
       </c>
@@ -8880,26 +9204,26 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
   </sheetData>

--- a/excel/Rechentool_Wasserchemie.xlsx
+++ b/excel/Rechentool_Wasserchemie.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschlenstedt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschlenstedt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9615" tabRatio="824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="824"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="12" r:id="rId1"/>
@@ -21,19 +21,20 @@
     <sheet name="Quelle pH 3" sheetId="5" r:id="rId7"/>
     <sheet name="Quelle pH 4" sheetId="13" r:id="rId8"/>
     <sheet name="Quelle pH 5" sheetId="20" r:id="rId9"/>
-    <sheet name="Quelle CYA" sheetId="2" r:id="rId10"/>
-    <sheet name="Quelle pH Senker 1" sheetId="9" r:id="rId11"/>
-    <sheet name="Quelle pH Senker 2" sheetId="11" r:id="rId12"/>
-    <sheet name="Quelle Chlor 1" sheetId="16" r:id="rId13"/>
-    <sheet name="Quelle Chlor 2" sheetId="19" r:id="rId14"/>
-    <sheet name="Quelle Redox 1" sheetId="15" r:id="rId15"/>
+    <sheet name="Quelle CYA 1" sheetId="2" r:id="rId10"/>
+    <sheet name="Quelle CYA 2" sheetId="21" r:id="rId11"/>
+    <sheet name="Quelle pH Senker 1" sheetId="9" r:id="rId12"/>
+    <sheet name="Quelle pH Senker 2" sheetId="11" r:id="rId13"/>
+    <sheet name="Quelle Chlor 1" sheetId="16" r:id="rId14"/>
+    <sheet name="Quelle Chlor 2" sheetId="19" r:id="rId15"/>
+    <sheet name="Quelle Redox 1" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="142">
   <si>
     <t>pH Wert</t>
   </si>
@@ -777,6 +778,39 @@
   <si>
     <t>Version:</t>
   </si>
+  <si>
+    <t>7. Auflage 2019, Seite 87</t>
+  </si>
+  <si>
+    <t>Helmut Ruß, Chemie für den Badebetrieb, LITHO-Verlag,</t>
+  </si>
+  <si>
+    <t>Quelle Chlor 4</t>
+  </si>
+  <si>
+    <t>Quelle CYA 1</t>
+  </si>
+  <si>
+    <t>Quelle Chlor 1</t>
+  </si>
+  <si>
+    <t>Quelle Chlor 3</t>
+  </si>
+  <si>
+    <t>Quelle  Chlor 5</t>
+  </si>
+  <si>
+    <t>Quelle  Chlor 2</t>
+  </si>
+  <si>
+    <t>Quelle CYA 2</t>
+  </si>
+  <si>
+    <t>Favorit</t>
+  </si>
+  <si>
+    <t>2. Quelle für Abhängigkeit CYA hinzugefügt</t>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +821,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,8 +968,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,6 +1029,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,7 +1284,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1502,6 +1550,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1523,15 +1581,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1790,6 +1859,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2047,6 +2117,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2316,6 +2387,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2585,6 +2657,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2678,7 +2751,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Quelle CYA'!$H$3:$H$13</c:f>
+              <c:f>'Quelle CYA 1'!$H$3:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2720,7 +2793,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Quelle CYA'!$I$3:$I$13</c:f>
+              <c:f>'Quelle CYA 1'!$I$3:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2854,6 +2927,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2878,6 +2952,252 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19137729658792668"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.76399081364829502"/>
+          <c:h val="0.76486840186643335"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:intercept val="100"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.24352865266841645"/>
+                  <c:y val="-0.43007331963939288"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000000000000000000000000000" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Quelle CYA 2'!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Quelle CYA 2'!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-612E-4E97-A520-D49465534534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="150953344"/>
+        <c:axId val="150967808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="150953344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>CYA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> KOnzentration [ppm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43024059492563432"/>
+              <c:y val="0.91108778069407992"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150967808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150967808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" b="1"/>
+                  <a:t>Anteil freies </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" b="1" baseline="0"/>
+                  <a:t>Cl2 an gesamt verfügbaren Cl2 [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150953344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3435,7 +3755,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3715,6 +4035,49 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="3410426" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4257,6 +4620,81 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="238125"/>
+          <a:ext cx="3314700" cy="1806512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4330,7 +4768,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4362,49 +4800,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="8773749" cy="1038370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>124301</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114343</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="3410426" cy="304843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4705,7 +5100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4753,8 +5150,9 @@
       <c r="B10" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="129">
-        <v>3</v>
+      <c r="C10" s="122">
+        <f>MAX(C27:C1000)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -4764,110 +5162,110 @@
     </row>
     <row r="13" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="121"/>
-      <c r="I14" s="125" t="s">
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="I14" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
       <c r="M14" s="117"/>
       <c r="N14" s="118"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="128"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
       <c r="M15" s="117"/>
       <c r="N15" s="118"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
       <c r="M16" s="117"/>
       <c r="N16" s="118"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="125"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
       <c r="M17" s="117"/>
       <c r="N17" s="118"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="128"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
       <c r="M18" s="117"/>
       <c r="N18" s="118"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
       <c r="M19" s="117"/>
       <c r="N19" s="118"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="121"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="125"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
       <c r="M20" s="117"/>
       <c r="N20" s="118"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="124"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="128"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
       <c r="M21" s="117"/>
       <c r="N21" s="118"/>
     </row>
@@ -4921,7 +5319,15 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="116"/>
+      <c r="B30" s="115">
+        <v>44390</v>
+      </c>
+      <c r="C30" s="116">
+        <v>4</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="116"/>
@@ -5110,6 +5516,159 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="10">
+        <v>30</v>
+      </c>
+      <c r="H4" s="10">
+        <f>(43+47)/2</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="10">
+        <v>50</v>
+      </c>
+      <c r="H5" s="10">
+        <f>(26+41)/2</f>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="10">
+        <v>70</v>
+      </c>
+      <c r="H6" s="10">
+        <f>(19+37)/2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="10">
+        <v>90</v>
+      </c>
+      <c r="H7" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="10">
+        <v>100</v>
+      </c>
+      <c r="H8" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="10">
+        <v>130</v>
+      </c>
+      <c r="H9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -5717,7 +6276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
@@ -6245,7 +6804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:C9"/>
   <sheetViews>
@@ -6534,7 +7093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:C7"/>
   <sheetViews>
@@ -6823,7 +7382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -6866,28 +7425,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M52"/>
+  <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="84" t="s">
         <v>13</v>
@@ -6895,519 +7466,893 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
-      <c r="I3" s="119" t="s">
+      <c r="H3" s="131"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="N3" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="121"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O3" s="125"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="124"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="128"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="24">
-        <v>1.18</v>
+        <v>1.66</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H5" s="131"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="25">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="24">
-        <v>6.9</v>
+        <v>7.03</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+    </row>
+    <row r="8" spans="2:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
       <c r="C8" s="20"/>
       <c r="D8" s="32"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="31"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="82"/>
       <c r="C11" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="F11" s="83"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="82"/>
+      <c r="I11" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="83"/>
+      <c r="N11" s="135" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="27"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H12" s="18"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="97">
         <f>0.751201923267217*D7^5-22.9230405075359*D7^4+271.602746296906*D7^3-1558.52363838115*D7^2+4292.40829146816*D7-4349.26661079253</f>
-        <v>80.087047229938435</v>
+        <v>75.883140626686327</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="97">
+        <f>0.751201923267217*D7^5-22.9230405075359*D7^4+271.602746296906*D7^3-1558.52363838115*D7^2+4292.40829146816*D7-4349.26661079253</f>
+        <v>75.883140626686327</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="17"/>
       <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="98">
         <f>-3.55929641346394E-09*D6^5+0.0000020015710579953*D6^4-0.000429972723418801*D6^3+0.0460773383745402*D6^2-2.80529044381005*D6+99.6338409554219</f>
-        <v>51.159750167555572</v>
+        <v>66.569354185101275</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="18"/>
+      <c r="I14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="98">
+        <f>100*EXP(-0.0197703611624499*D6)</f>
+        <v>74.337443021713057</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="19"/>
       <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="18"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="35">
         <f>D5*D13/100*D14/100</f>
-        <v>0.48347353269702309</v>
+        <v>0.83854761639925113</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="18"/>
+      <c r="I16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="35">
+        <f>D5*J13/100*J14/100</f>
+        <v>0.936399134679059</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="2:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="28"/>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="22"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="31"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="82"/>
       <c r="C20" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="F20" s="83"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="82"/>
+      <c r="I20" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="83"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="27"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="18"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="97">
         <f>7.22051282053251*D7^5-252.344988345526*D7^4+3516.66200466729*D7^3-24442.5594405799*D7^2+84751.3272727387*D7-117184.46153839</f>
-        <v>82.205783274635905</v>
+        <v>78.404158540099161</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="97">
+        <f>7.22051282053251*D7^5-252.344988345526*D7^4+3516.66200466729*D7^3-24442.5594405799*D7^2+84751.3272727387*D7-117184.46153839</f>
+        <v>78.404158540099161</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="17"/>
       <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="98">
         <f>-3.55929641346394E-09*D6^5+0.0000020015710579953*D6^4-0.000429972723418801*D6^3+0.0460773383745402*D6^2-2.80529044381005*D6+99.6338409554219</f>
-        <v>51.159750167555572</v>
+        <v>66.569354185101275</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="18"/>
+      <c r="I23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="98">
+        <f>100*EXP(-0.0197703611624499*D6)</f>
+        <v>74.337443021713057</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="19"/>
       <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="18"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="35">
         <f>D5*D22/100*D23/100</f>
-        <v>0.49626402548971377</v>
+        <v>0.86640615710715518</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="18"/>
+      <c r="I25" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="35">
+        <f>D5*J22/100*J23/100</f>
+        <v>0.96750853491123645</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="2:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="28"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
       <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="22"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="31"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H29" s="18"/>
+      <c r="I29" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="27"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="18"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="97">
         <f>4.59487179488902*D7^5-145.230769231237*D7^4+1815.58974359428*D7^3 - 11221.627039644*D7^2+34267.6195804252*D7-41210.141025571</f>
-        <v>81.23520999597531</v>
+        <v>76.498614436954085</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="97">
+        <f>4.59487179488902*D7^5-145.230769231237*D7^4+1815.58974359428*D7^3 - 11221.627039644*D7^2+34267.6195804252*D7-41210.141025571</f>
+        <v>76.498614436954085</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="17"/>
       <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="98">
         <f>-3.55929641346394E-09*D6^5+0.0000020015710579953*D6^4-0.000429972723418801*D6^3+0.0460773383745402*D6^2-2.80529044381005*D6+99.6338409554219</f>
-        <v>51.159750167555572</v>
+        <v>66.569354185101275</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H32" s="18"/>
+      <c r="I32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="98">
+        <f>100*EXP(-0.0197703611624499*D6)</f>
+        <v>74.337443021713057</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="19"/>
       <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H33" s="18"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="35">
         <f>D5*D31/100*D32/100</f>
-        <v>0.49040481968795518</v>
+        <v>0.84534891761443431</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="18"/>
+      <c r="I34" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="35">
+        <f>D5*J31/100*J32/100</f>
+        <v>0.94399409106321353</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="2:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
       <c r="C35" s="28"/>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
       <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="22"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="136"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="138"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
       <c r="C38" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="141"/>
+      <c r="I38" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L38" s="139"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="C39" s="27"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="141"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="139"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
       <c r="C40" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="97">
         <f>-9.86801751423627E-11*D7^5+11.6550116601304*D7^4-324.009324101167*D7^3+3353.61305437523*D7^2-15353.4848514933*D7+26374.6993052818</f>
-        <v>79.748251747747418</v>
+        <v>74.560398717338103</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="97">
+        <f>-9.86801751423627E-11*D7^5+11.6550116601304*D7^4-324.009324101167*D7^3+3353.61305437523*D7^2-15353.4848514933*D7+26374.6993052818</f>
+        <v>74.560398717338103</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="139"/>
       <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="C41" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="98">
         <f>-3.55929641346394E-09*D6^5+0.0000020015710579953*D6^4-0.000429972723418801*D6^3+0.0460773383745402*D6^2-2.80529044381005*D6+99.6338409554219</f>
-        <v>51.159750167555572</v>
+        <v>66.569354185101275</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="141"/>
+      <c r="I41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="98">
+        <f>100*EXP(-0.0197703611624499*D6)</f>
+        <v>74.337443021713057</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="139"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="19"/>
       <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="141"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="139"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="35">
         <f>D5*D40/100*D41/100</f>
-        <v>0.48142827501426205</v>
+        <v>0.82393064000587712</v>
       </c>
       <c r="E43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="2:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="141"/>
+      <c r="I43" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="35">
+        <f>D5*J40/100*J41/100</f>
+        <v>0.92007647896017053</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="139"/>
+    </row>
+    <row r="44" spans="2:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
       <c r="C44" s="28"/>
       <c r="D44" s="33"/>
       <c r="E44" s="34"/>
       <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="142"/>
+      <c r="I44" s="143"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="145"/>
+      <c r="L44" s="140"/>
+    </row>
+    <row r="45" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
       <c r="D46" s="23"/>
       <c r="E46" s="14"/>
       <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="31"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="F47" s="17"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H47" s="18"/>
+      <c r="I47" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="18"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="C49" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="98">
         <f>-3.55929641346394E-09*D6^5+0.0000020015710579953*D6^4-0.000429972723418801*D6^3+0.0460773383745402*D6^2-2.80529044381005*D6+99.6338409554219</f>
-        <v>51.159750167555572</v>
+        <v>66.569354185101275</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H49" s="18"/>
+      <c r="I49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="98">
+        <f>100*EXP(-0.0197703611624499*D6)</f>
+        <v>74.337443021713057</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="19"/>
       <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H50" s="18"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
       <c r="C51" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="35">
-        <f>D5/(1+((0.0567*25)+1.476)*10^-8/10^(-1*D7))*D23/100</f>
-        <v>0.49086515671887443</v>
+        <f>D5/(1+((0.0567*25)+1.476)*10^-8/10^(-1*D7))*D49/100</f>
+        <v>0.84352219151921626</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="18"/>
+      <c r="I51" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="35">
+        <f>D5/(1+((0.0567*25)+1.476)*10^-8/10^(-1*D7))*J49/100</f>
+        <v>0.94195420125683282</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" spans="2:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
       <c r="C52" s="28"/>
       <c r="D52" s="33"/>
       <c r="E52" s="34"/>
       <c r="F52" s="21"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I3:J4"/>
+  <mergeCells count="2">
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="N11:P12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" location="'Quelle pH_1'!A1" display="Quelle"/>
-    <hyperlink ref="E20" location="'Quelle CYA'!A1" display="Quelle"/>
     <hyperlink ref="D47" location="'Quelle pH_2'!A1" display="Quelle"/>
-    <hyperlink ref="E47" location="'Quelle CYA'!A1" display="Quelle"/>
     <hyperlink ref="D29" location="'Quelle pH_3'!A1" display="Quelle"/>
-    <hyperlink ref="E29" location="'Quelle CYA'!A1" display="Quelle"/>
-    <hyperlink ref="I3:J4" location="Start!A1" display="Zurück"/>
+    <hyperlink ref="N3:O4" location="Start!A1" display="Zurück"/>
     <hyperlink ref="D11" location="'Quelle pH 4'!A1" display="Quelle"/>
     <hyperlink ref="E11" location="'Quelle CYA'!A1" display="Quelle"/>
     <hyperlink ref="D38" location="'Quelle pH 5'!A1" display="Quelle"/>
+    <hyperlink ref="K11" location="'Quelle CYA 2'!A1" display="Quelle"/>
+    <hyperlink ref="E20" location="'Quelle CYA'!A1" display="Quelle"/>
+    <hyperlink ref="E29" location="'Quelle CYA'!A1" display="Quelle"/>
     <hyperlink ref="E38" location="'Quelle CYA'!A1" display="Quelle"/>
+    <hyperlink ref="E47" location="'Quelle CYA'!A1" display="Quelle"/>
+    <hyperlink ref="J11" location="'Quelle pH 4'!A1" display="Quelle"/>
+    <hyperlink ref="J20" location="'Quelle pH_1'!A1" display="Quelle"/>
+    <hyperlink ref="J29" location="'Quelle pH_3'!A1" display="Quelle"/>
+    <hyperlink ref="J38" location="'Quelle pH 5'!A1" display="Quelle"/>
+    <hyperlink ref="J47" location="'Quelle pH_2'!A1" display="Quelle"/>
+    <hyperlink ref="K20" location="'Quelle CYA 2'!A1" display="Quelle"/>
+    <hyperlink ref="K29" location="'Quelle CYA 2'!A1" display="Quelle"/>
+    <hyperlink ref="K38" location="'Quelle CYA 2'!A1" display="Quelle"/>
+    <hyperlink ref="K47" location="'Quelle CYA 2'!A1" display="Quelle"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7419,7 +8364,7 @@
   <dimension ref="B1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J4"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7449,10 +8394,10 @@
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="56"/>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="121"/>
+      <c r="J3" s="125"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
@@ -7460,8 +8405,8 @@
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="F4" s="56"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="124"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="128"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="53"/>
@@ -7482,7 +8427,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="59">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="E6" s="55" t="s">
         <v>9</v>
@@ -7495,7 +8440,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="58">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E7" s="55" t="s">
         <v>64</v>
@@ -7570,7 +8515,7 @@
       <c r="B16" s="53"/>
       <c r="C16" s="54" t="str">
         <f>"pH "&amp;D6&amp;":"</f>
-        <v>pH 7,5:</v>
+        <v>pH 7,2:</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -7583,7 +8528,7 @@
       </c>
       <c r="D17" s="96">
         <f>D5*0.01*D7*2/(10^(-1*(D6-D14))+1)</f>
-        <v>1.861970239263635</v>
+        <v>174.22955968091111</v>
       </c>
       <c r="E17" s="55" t="s">
         <v>68</v>
@@ -7597,7 +8542,7 @@
       </c>
       <c r="D18" s="96">
         <f>D5*0.01*D7*2-D17</f>
-        <v>0.13802976073636497</v>
+        <v>25.770440319088891</v>
       </c>
       <c r="E18" s="55" t="s">
         <v>68</v>
@@ -7621,7 +8566,7 @@
       </c>
       <c r="D20" s="96">
         <f>D5*0.01*D7*2/(10^(-1*(D8-D14))+1)</f>
-        <v>1.6201903172095133</v>
+        <v>162.01903172095135</v>
       </c>
       <c r="E20" s="55" t="s">
         <v>68</v>
@@ -7635,7 +8580,7 @@
       </c>
       <c r="D21" s="96">
         <f>D5*0.01*D7*2-D20</f>
-        <v>0.37980968279048666</v>
+        <v>37.980968279048653</v>
       </c>
       <c r="E21" s="55" t="s">
         <v>68</v>
@@ -7670,7 +8615,7 @@
       </c>
       <c r="D23" s="96">
         <f>D17-D20</f>
-        <v>0.24177992205412169</v>
+        <v>12.210527959959762</v>
       </c>
       <c r="E23" s="69" t="s">
         <v>68</v>
@@ -7718,7 +8663,7 @@
       <c r="C29" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="146">
         <v>95</v>
       </c>
       <c r="E29" s="69" t="s">
@@ -7753,7 +8698,7 @@
       </c>
       <c r="D32" s="86">
         <f>D23*D30*100/D29</f>
-        <v>30.555637538837679</v>
+        <v>1543.1408172050624</v>
       </c>
       <c r="E32" s="79" t="s">
         <v>74</v>
@@ -7800,8 +8745,8 @@
       <c r="C38" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="58">
-        <v>30</v>
+      <c r="D38" s="146">
+        <v>14.9</v>
       </c>
       <c r="E38" s="69" t="s">
         <v>11</v>
@@ -7828,7 +8773,7 @@
       </c>
       <c r="D40" s="93">
         <f>-3.7690895087126E-10*D38^5+7.26911020653311E-08*D38^4-4.76190592765076E-06*D38^3+0.0001581146391987*D38^2+0.00505610133759853*D38+1.00067088253995</f>
-        <v>1.2158065430669118</v>
+        <v>1.0986637115088573</v>
       </c>
       <c r="E40" s="69" t="s">
         <v>76</v>
@@ -7849,7 +8794,7 @@
       </c>
       <c r="D42" s="86">
         <f>D23/2*D39*100/D38/D40</f>
-        <v>32.506941352975716</v>
+        <v>3657.8424808852969</v>
       </c>
       <c r="E42" s="79" t="s">
         <v>84</v>
@@ -7912,10 +8857,10 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="121"/>
+      <c r="J3" s="125"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
@@ -7923,8 +8868,8 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="124"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="128"/>
     </row>
     <row r="5" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="53"/>
@@ -7952,7 +8897,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="24">
-        <v>1.18</v>
+        <v>1.66</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>8</v>
@@ -7965,7 +8910,7 @@
         <v>96</v>
       </c>
       <c r="D8" s="24">
-        <v>1.28</v>
+        <v>1.76</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>8</v>
@@ -7987,8 +8932,8 @@
         <v>97</v>
       </c>
       <c r="D10" s="103">
-        <f>'Rechner aktives Chlor'!D16</f>
-        <v>0.48347353269702309</v>
+        <f>'Rechner aktives Chlor'!J43</f>
+        <v>0.92007647896017053</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>8</v>
@@ -8001,7 +8946,7 @@
         <v>96</v>
       </c>
       <c r="D11" s="24">
-        <v>0.58299999999999996</v>
+        <v>1.02</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>8</v>
@@ -8117,7 +9062,7 @@
       </c>
       <c r="D23" s="96">
         <f>D11-D10</f>
-        <v>9.9526467302976873E-2</v>
+        <v>9.9923521039829488E-2</v>
       </c>
       <c r="E23" s="55" t="s">
         <v>101</v>
@@ -8131,7 +9076,7 @@
       </c>
       <c r="D24" s="107">
         <f>'Rechner aktives Chlor'!D13</f>
-        <v>80.087047229938435</v>
+        <v>75.883140626686327</v>
       </c>
       <c r="E24" s="55" t="s">
         <v>11</v>
@@ -8145,7 +9090,7 @@
       </c>
       <c r="D25" s="107">
         <f>'Rechner aktives Chlor'!D14</f>
-        <v>51.159750167555572</v>
+        <v>66.569354185101275</v>
       </c>
       <c r="E25" s="55" t="s">
         <v>11</v>
@@ -8211,11 +9156,11 @@
       <c r="D34" s="76"/>
       <c r="E34" s="51"/>
       <c r="F34" s="52"/>
-      <c r="H34" s="126" t="s">
+      <c r="H34" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
@@ -8225,13 +9170,13 @@
       <c r="D35" s="77"/>
       <c r="E35" s="77"/>
       <c r="F35" s="56"/>
-      <c r="H35" s="127" t="s">
+      <c r="H35" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127">
-        <v>1.18</v>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120">
+        <v>1.66</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>8</v>
@@ -8243,13 +9188,13 @@
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="56"/>
-      <c r="H36" s="127" t="s">
+      <c r="H36" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127">
-        <v>0.48</v>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120">
+        <v>0.92</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>8</v>
@@ -8262,20 +9207,20 @@
       </c>
       <c r="D37" s="86">
         <f>D5*1000*D23/1000/D19*100/D18/D24*100/D25*100</f>
-        <v>210.86058799240095</v>
+        <v>171.71000829185667</v>
       </c>
       <c r="E37" s="79" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="56"/>
-      <c r="H37" s="127" t="s">
+      <c r="H37" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127">
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120">
         <f>K35/K36</f>
-        <v>2.4583333333333335</v>
+        <v>1.8043478260869563</v>
       </c>
       <c r="L37" s="2"/>
     </row>
@@ -8287,7 +9232,7 @@
       <c r="F38" s="64"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H39" s="127" t="s">
+      <c r="H39" s="120" t="s">
         <v>126</v>
       </c>
       <c r="K39">
@@ -8298,23 +9243,23 @@
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H40" s="127" t="s">
+      <c r="H40" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="K40" s="128">
-        <v>210.86</v>
+      <c r="K40" s="121">
+        <v>171.71</v>
       </c>
       <c r="L40" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H42" s="127" t="s">
+      <c r="H42" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="128">
+      <c r="K42" s="121">
         <f>K39*K37</f>
-        <v>213.40791666666669</v>
+        <v>156.63543478260868</v>
       </c>
       <c r="L42" t="s">
         <v>84</v>
